--- a/Test_File/日常冒烟测试点.xlsx
+++ b/Test_File/日常冒烟测试点.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edz/Documents/Python_Frame/Test_File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0E1A5-3C8B-EA47-B082-24CC32ED445E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55370F2B-1B78-CC4B-80D6-E8DC605136FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45640" windowHeight="25380" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="双屏机接口冒烟" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="POS机接口冒烟2" sheetId="4" r:id="rId4"/>
     <sheet name="商户后台接口冒烟" sheetId="5" r:id="rId5"/>
     <sheet name="商户后台接口冒烟2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="336">
   <si>
     <t>用例名称</t>
   </si>
@@ -123,10 +124,10 @@
     <t>200</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'id': '1421', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-测试环境', 'admin_type': '2', 'mobile': '15672755599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1607396026', 'create_time': '1606974578', 'update_time': '1607396026', 'role_list': [{'id': '598', 'type': '2', 'merchant_type': '1001', 'merchant_id': '10001', 'name': '单站-管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '41', 'create_time': '1605681900', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'handle_password': 'b08b487bd16300519a3342b67de00aba', 'merchant_info': {'merchant_id': '10001', 'merchant_type': '1001', 'company_id': '10001', 'company_name': '智慧加油集团', 'full_name': '智慧第一加油站智慧第一加油站智慧第一加油站智慧第一加油站11', 'group_id': '5', 'merchant_name': '智慧第一加油站（零管专用）', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'banner_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'contact_name': 'ying', 'contact_tel': '18617121378', 'province_id': '19', 'city_id': '289', 'region_id': '3038', 'status': '1', 'open_status': '1', 'address': '北京西城区', 'longitude': '113.3217910', 'latitude': '23.6184120', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '10005', 'create_time': '1533806679', 'online_time': '11110', 'update_time': '1607326773', 'other': 'null', 'all_app_id': ['fb1de4489b67b8cb', 'wx6c6693a2df6265b8', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'wx73a8de5287159207', 'qrcode_url': [{'type': 1, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0'}, {'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '鹰眼集团', 'company_id': '1', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191014/15/6682c9a78cfb431e759c817d7710.png', 'description': '', 'contact_name': ''}}, 'token': '00F821BA6C853BCDE6F10AC66C25F1F0', 'merchant_status': '1', 'invoice': {'id': '28', 'merchant_id': '10001', 'legal_person_name': '张三', 'valid_day': '70', 'entrance': '1,2,3', 'ticket_type': '1', 'amount_type': '2', 'paper_stock': '0', 'card_id': 'pkOfe58sK_w-V7MST5B9hhf0O5A8', 'is_register': '0', 'recharge_product': '10#车用柴油', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20190711/19/83f0da35200a2d20851b4181069c.png', 's_pappid': '', 'create_time': '1605514186', 'update_time': '1605582520', 'invoice_balance': '1'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': '3d9df41d5ea2c7275d973be593249b3f'}</t>
-  </si>
-  <si>
-    <t>0.414</t>
+    <t>{'status': 200, 'info': 'Success', 'data': {'id': '5365', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'admin_type': '2', 'mobile': '15672855599', 'last_login_time': '1607426304', 'create_time': '1606974646', 'update_time': '1607426304', 'role_list': [{'id': '41', 'type': '2', 'merchant_type': '1001', 'merchant_id': '0', 'name': '管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '0', 'create_time': '1564058868', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'merchant_info': {'merchant_id': '10002', 'merchant_type': '1001', 'company_id': '1', 'company_name': '总集团', 'full_name': '深圳南山第二加油站', 'group_id': '14', 'merchant_name': '南山第二加油站（零管专用）', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png', 'banner_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png', 'contact_name': '黄先生', 'contact_tel': '13812342783', 'province_id': '19', 'city_id': '291', 'region_id': '3058', 'status': '1', 'open_status': '1', 'address': '高新南十一道28滨福世纪广场', 'longitude': '113.9527650', 'latitude': '22.5303740', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '0', 'create_time': '0', 'online_time': '1589531263', 'update_time': '1607076212', 'other': '{"way_tip":"\\u4f18\\u60e0"}', 'all_app_id': ['fb1de4489b67b8cb', 'wx6c6693a2df6265b8', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'wx73a8de5287159207', 'qrcode_url': [{'type': 1, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0'}, {'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '第一集团', 'company_id': '0', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/01/04/01/f5f236d540da065c6557d399a259.jpg', 'description': '', 'contact_name': ''}}, 'token': '9195EE2A9CF7FFFD82DED264A61BD8D7', 'merchant_status': '1', 'invoice': {'id': '2', 'merchant_id': '10002', 'legal_person_name': '', 'valid_day': '3', 'entrance': '1,2,3', 'ticket_type': '1,2', 'amount_type': '1', 'paper_stock': '0', 'card_id': 'pkOfe59l8E90UPoq1KwJs5Jx39o0', 'is_register': '0', 'recharge_product': '国VI LNG', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/01/14/15/3c035e84012939695ddec7aedbb7.jpeg', 's_pappid': '', 'create_time': '1578986348', 'update_time': '1599642259'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': 'cb31bf3782042b98f6d372ccc942d174'}</t>
+  </si>
+  <si>
+    <t>4.174</t>
   </si>
   <si>
     <t>pass</t>
@@ -147,10 +148,10 @@
     <t>{"pay_type":2,"pay_price":100,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343864', 'order_type': '16', 'order_code': '16202012083224838806', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '99', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406322', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406322', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344527', 'order_id': '8343864', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189297'}], 'payment_info': [{'id': '8011279', 'order_id': '8011279', 'order_code': '16202012083224838806', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083224838806', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406322', 'notify_time': '1607406322', 'platform': '4100', 'other': ''}]}], 'request_id': '59d2eb29339219957f580b049f846d17'}</t>
-  </si>
-  <si>
-    <t>0.497</t>
+    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '5950115', 'order_type': '16', 'order_code': '16202012083179632077', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607426317', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607426318', 'create_time': '1607426317', 'recommand_id': 0, 'items': [{'item_id': '5970223', 'order_id': '5950115', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '5793549'}], 'payment_info': [{'id': '5691047', 'order_id': '5691047', 'order_code': '16202012083179632077', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083179632077', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607426317', 'notify_time': '1607426317', 'platform': '4100', 'other': ''}]}], 'request_id': 'b28bb80c0a76f54dbb3531f1773099db'}</t>
+  </si>
+  <si>
+    <t>0.753</t>
   </si>
   <si>
     <t>3</t>
@@ -171,10 +172,10 @@
     <t>merchant_type=1001&amp;merchant_id=10001&amp;status%5B0%5D=1&amp;status%5B2%5D=5&amp;page_size=1&amp;time_sort=desc&amp;status%5B1%5D=2&amp;status%5B3%5D=7</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'total': 335, 'list': [{'type': 1, 'push_command': 65004, 'status': 65004, 'goods_name': '-1', 'energy_number': '-1', 'merchant_id': 10001, 'merchant_type': 1001, 'gun_num': 0, 'volume': 0, 'create_time': 1607054440}, {'id': 5502, 'settlement_id': 0, 'fuel_order_id': 0, 'order_sn': '201207180304839977', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10001, 'merchant_type': 1001, 'price': 520, 'gun_num': 15, 'pump_code_start': 2435479, 'pump_code_end': 2438662, 'pump_added_value': 3183, 'mdc_ttc': 10578, 'goods_name': '10#车用柴油', 'energy_number': '10', 'energy_id': 1601, 'amount': 16556, 'volume': 3183, 'order_type': 1, 'card_type': 0, 'card_no': '0', 'is_combine': 1, 'lock_source': 5, 'status': 7, 'create_time': 1607335384, 'first_record_time': '2020-12-07 18:03:04', 'update_time': 1607396060, 'update_date': '2020-12-08 10:54:20', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10001&amp;a=pay', 'box_order': 5502, 'push_command': '65001', 'type': 2}]}, 'request_id': 'a05cff9ba285cc645f04db1d92c3018b'}</t>
-  </si>
-  <si>
-    <t>0.132</t>
+    <t>{'status': 200, 'info': 'Success', 'data': {'total': 0, 'list': []}, 'request_id': '6efb7461408cf3d198948e0be57c6b9f'}</t>
+  </si>
+  <si>
+    <t>0.788</t>
   </si>
   <si>
     <t>4</t>
@@ -195,10 +196,19 @@
     <t>{"associateid":"3","associatefield":"None"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343865', 'order_type': '16', 'order_code': '16202012083242601405', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '16556', 'order_amount': '16556', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '16555', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406324', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406324', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344528', 'order_id': '8343865', 'goods_type': '10', 'category_id': '1', 'goods_id': '1601', 'goods_name': '10#车用柴油', 'goods_sn': '', 'goods_number': '31.830000', 'market_price': '20000', 'goods_price': '20000', 'actual_price': '20000', 'contract_price': '20000', 'subtotal': '16556', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '10', 'gun_type': '0', 'gun_id': '2986', 'gun_number': '15', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189298'}], 'payment_info': [{'id': '8011280', 'order_id': '8011280', 'order_code': '16202012083242601405', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083242601405', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406324', 'notify_time': '1607406324', 'platform': '4100', 'other': ''}]}], 'request_id': '427d7f69117e77d0eac50db7473d6820'}</t>
-  </si>
-  <si>
-    <t>0.589</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': 'd543df70c2875295cadceaf75b15e9f4'}</t>
+  </si>
+  <si>
+    <t>0.528</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"d543df70c2875295cadceaf75b15e9f4"}</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
   <si>
     <t>5</t>
@@ -210,10 +220,13 @@
     <t>{"order_id":[58435],"is_mix_pay":0,"pay_type":7,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343866', 'order_type': '16', 'order_code': '16202012083262281469', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '7768', 'order_amount': '7768', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '7767', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406326', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406326', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344529', 'order_id': '8343866', 'goods_type': '10', 'category_id': '1', 'goods_id': '2003', 'goods_name': '92#车用汽油', 'goods_sn': '', 'goods_number': '14.930000', 'market_price': '33200', 'goods_price': '33200', 'actual_price': '33200', 'contract_price': '33200', 'subtotal': '7768', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '92', 'gun_type': '0', 'gun_id': '299', 'gun_number': '5', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189299'}], 'payment_info': [{'id': '8011281', 'order_id': '8011281', 'order_code': '16202012083262281469', 'payment_id': '45', 'channel_id': '45', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083262281469', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406326', 'notify_time': '1607406326', 'platform': '4100', 'other': ''}]}], 'request_id': '7579d70e8fb4f704e7e773bbb6237ffc'}</t>
-  </si>
-  <si>
-    <t>0.595</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': '09f71656916864b90a62b90815b24fc0'}</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"09f71656916864b90a62b90815b24fc0"}</t>
   </si>
   <si>
     <t>6</t>
@@ -225,10 +238,13 @@
     <t>{"order_id":[58435],"is_mix_pay":0,"pay_type":8,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343867', 'order_type': '16', 'order_code': '16202012083282525905', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '13234', 'order_amount': '13234', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '13233', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406328', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406328', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344530', 'order_id': '8343867', 'goods_type': '10', 'category_id': '2', 'goods_id': '1406', 'goods_name': '-50#车用柴油', 'goods_sn': '', 'goods_number': '25.450000', 'market_price': '29000', 'goods_price': '29000', 'actual_price': '29000', 'contract_price': '29000', 'subtotal': '13234', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '-50', 'gun_type': '0', 'gun_id': '2947', 'gun_number': '3', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189300'}], 'payment_info': [{'id': '8011282', 'order_id': '8011282', 'order_code': '16202012083282525905', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083282525905', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406328', 'notify_time': '1607406328', 'platform': '4100', 'other': ''}]}], 'request_id': '5722d7ceac2e53cad3f5351ffc0eb0dc'}</t>
-  </si>
-  <si>
-    <t>0.673</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': '1cfade536094d572120130742af649af'}</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"1cfade536094d572120130742af649af"}</t>
   </si>
   <si>
     <t>7</t>
@@ -240,10 +256,13 @@
     <t>{"order_id":[58435],"is_mix_pay":0,"pay_type":9,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343868', 'order_type': '16', 'order_code': '16202012083302491428', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '14924', 'order_amount': '14924', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '14923', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406330', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406330', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344531', 'order_id': '8343868', 'goods_type': '10', 'category_id': '3', 'goods_id': '2026', 'goods_name': 'CNG', 'goods_sn': '', 'goods_number': '28.700000', 'market_price': '34500', 'goods_price': '34500', 'actual_price': '34500', 'contract_price': '34500', 'subtotal': '14924', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '3', 'energy_number': 'CNG', 'gun_type': '0', 'gun_id': '2952', 'gun_number': '14', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189301'}], 'payment_info': [{'id': '8011283', 'order_id': '8011283', 'order_code': '16202012083302491428', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083302491428', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406330', 'notify_time': '1607406330', 'platform': '4100', 'other': ''}]}], 'request_id': '8133d73b67085abe32474c53d2c6fd0b'}</t>
-  </si>
-  <si>
-    <t>0.758</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': '06ade691f5bbb7d3fe2bc225fd9f65f1'}</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"06ade691f5bbb7d3fe2bc225fd9f65f1"}</t>
   </si>
   <si>
     <t>8</t>
@@ -255,10 +274,13 @@
     <t>{"order_id":[58435],"is_mix_pay":0,"pay_type":10,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343869', 'order_type': '16', 'order_code': '16202012083325214410', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '7264', 'order_amount': '7264', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '7263', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406332', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406332', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344532', 'order_id': '8343869', 'goods_type': '10', 'category_id': '1', 'goods_id': '2002', 'goods_name': '97#车用汽油', 'goods_sn': '', 'goods_number': '13.960000', 'market_price': '39000', 'goods_price': '39000', 'actual_price': '39000', 'contract_price': '39000', 'subtotal': '7264', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '97', 'gun_type': '0', 'gun_id': '302', 'gun_number': '8', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189302'}], 'payment_info': [{'id': '8011284', 'order_id': '8011284', 'order_code': '16202012083325214410', 'payment_id': '43', 'channel_id': '43', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083325214410', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406332', 'notify_time': '1607406332', 'platform': '4100', 'other': ''}]}], 'request_id': 'b685c771b73951f3f7482ed6b993f5c1'}</t>
-  </si>
-  <si>
-    <t>0.612</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': '23fb0fda3ea664443a8b1cf7b87dc111'}</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"23fb0fda3ea664443a8b1cf7b87dc111"}</t>
   </si>
   <si>
     <t>9</t>
@@ -270,10 +292,13 @@
     <t>{"order_id":[58435],"is_mix_pay":0,"pay_type":11,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343870', 'order_type': '16', 'order_code': '16202012083345936253', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '23795', 'order_amount': '23795', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '23794', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406334', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406334', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344533', 'order_id': '8343870', 'goods_type': '10', 'category_id': '6', 'goods_id': '2025', 'goods_name': 'LNG', 'goods_sn': '', 'goods_number': '45.750000', 'market_price': '53500', 'goods_price': '53500', 'actual_price': '53500', 'contract_price': '53500', 'subtotal': '23795', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '6', 'energy_number': 'LNG', 'gun_type': '0', 'gun_id': '2955', 'gun_number': '16', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189303'}], 'payment_info': [{'id': '8011285', 'order_id': '8011285', 'order_code': '16202012083345936253', 'payment_id': '44', 'channel_id': '44', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083345936253', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406334', 'notify_time': '1607406334', 'platform': '4100', 'other': ''}]}], 'request_id': 'a89721724b8723c0920a3ce59b6c7ecb'}</t>
-  </si>
-  <si>
-    <t>0.898</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': 'e4e896f4a243d1a50149acd5d8b7fe80'}</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"e4e896f4a243d1a50149acd5d8b7fe80"}</t>
   </si>
   <si>
     <t>10</t>
@@ -285,10 +310,10 @@
     <t>{"pay_type":2,"pay_price":10,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343871', 'order_type': '16', 'order_code': '16202012083366738158', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '10', 'order_amount': '10', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '9', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406336', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406336', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344534', 'order_id': '8343871', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '10', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189304'}], 'payment_info': [{'id': '8011286', 'order_id': '8011286', 'order_code': '16202012083366738158', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083366738158', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '10', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406336', 'notify_time': '1607406336', 'platform': '4100', 'other': ''}]}], 'request_id': '10a20ca02adbea15e4c81ee4ea0892d1'}</t>
-  </si>
-  <si>
-    <t>0.579</t>
+    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '5950116', 'order_type': '16', 'order_code': '16202012083318135453', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '10', 'order_amount': '10', 'pay_money': '10', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607426331', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607426332', 'create_time': '1607426331', 'recommand_id': 0, 'items': [{'item_id': '5970224', 'order_id': '5950116', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '10', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '5793550'}], 'payment_info': [{'id': '5691048', 'order_id': '5691048', 'order_code': '16202012083318135453', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083318135453', 'out_trade_no': '', 'total_fee': '10', 'pay_fee': '10', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607426331', 'notify_time': '1607426331', 'platform': '4100', 'other': ''}]}], 'request_id': '46b26fe2bf39440fcaf16b1892c94a81'}</t>
+  </si>
+  <si>
+    <t>1.332</t>
   </si>
   <si>
     <t>11</t>
@@ -303,10 +328,10 @@
     <t>{"order_id":[58339],"pay_type":2,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'af0fa15fd9712fcd6c17621cedef3bec'}</t>
-  </si>
-  <si>
-    <t>0.130</t>
+    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '835e3ba3e93e3ef3d3d99d8e4821413d'}</t>
+  </si>
+  <si>
+    <t>0.272</t>
   </si>
   <si>
     <t>12</t>
@@ -318,10 +343,10 @@
     <t>{"order_id":[58339],"pay_type":7,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '67f231d7337591045b488f2c3a45feb5'}</t>
-  </si>
-  <si>
-    <t>0.108</t>
+    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'c662d2966a7fce21c36c5669860e6039'}</t>
+  </si>
+  <si>
+    <t>0.682</t>
   </si>
   <si>
     <t>13</t>
@@ -333,10 +358,10 @@
     <t>{"order_id":[58339],"pay_type":8,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'ac4260d70651db340b18d820c9b40bfb'}</t>
-  </si>
-  <si>
-    <t>0.107</t>
+    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '00daf89f57ec6d3898ad54fcf752a7d3'}</t>
+  </si>
+  <si>
+    <t>0.419</t>
   </si>
   <si>
     <t>14</t>
@@ -348,10 +373,10 @@
     <t>{"order_id":[58339],"pay_type":9,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '2433d1ecf7322c68c0aa6b82a994733a'}</t>
-  </si>
-  <si>
-    <t>0.167</t>
+    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '66ebafc80079898802cfdddd918be95b'}</t>
+  </si>
+  <si>
+    <t>0.264</t>
   </si>
   <si>
     <t>15</t>
@@ -363,10 +388,10 @@
     <t>{"order_id":[58339],"pay_type":10,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'ce5f7ef12d01cb28859aee04f7f95228'}</t>
-  </si>
-  <si>
-    <t>0.112</t>
+    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'cfb7d92efaf4778dcf57854448514912'}</t>
+  </si>
+  <si>
+    <t>0.268</t>
   </si>
   <si>
     <t>16</t>
@@ -378,10 +403,10 @@
     <t>{"order_id":[58339],"pay_type":11,"merchant_id":10001,"merchant_type":1001}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '41a526aaef78547989d1673c512c486d'}</t>
-  </si>
-  <si>
-    <t>0.275</t>
+    <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '6acf91ba7aa6bb994789f07b7abd475d'}</t>
+  </si>
+  <si>
+    <t>0.398</t>
   </si>
   <si>
     <t>17</t>
@@ -399,10 +424,10 @@
     <t>merchant_type=1001&amp;end_time=1606319999&amp;merchant_id=10001&amp;page_size=10&amp;pay_status%5B0%5D=4&amp;begin_time=1606233600&amp;has_user_info=1&amp;order_status%5B0%5D=2010&amp;order_status%5B1%5D=1160&amp;page=1&amp;order_type=1</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406340', 'pay_time': '1607406340', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '31548', 'order_amount': '31548', 'pay_money': '1', 'discount': 31547, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083400375227', 'master_order_code': '16202012083400375227', 'order_id': '8343872', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083400375227&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '11', 'goods_number': '60.66', 'market_price': '45800', 'energy_number': '1', 'goods_name': '0#车用柴油', 'goods_id': '1402', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344535', 'order_id': '8343872', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '60.66', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '31548', 'is_gift': '0', 'energy_number': '1', 'energy_type': '2', 'gun_id': '2950', 'gun_name': '', 'gun_number': '11', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406334', 'pay_time': '1607406334', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '23795', 'order_amount': '23795', 'pay_money': '1', 'discount': 23794, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083345936253', 'master_order_code': '16202012083345936253', 'order_id': '8343870', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083345936253&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '16', 'goods_number': '45.75', 'market_price': '53500', 'energy_number': 'LNG', 'goods_name': 'LNG', 'goods_id': '2025', 'goods_type': '10', 'category_id': '6', 'car_no': '', 'items': [{'item_id': '8344533', 'order_id': '8343870', 'goods_type': '10', 'category_id': '6', 'product_id': '0', 'goods_id': '2025', 'goods_name': 'LNG', 'goods_sn': '', 'goods_number': '45.75', 'market_price': '53500', 'goods_price': '53500', 'actual_price': '53500', 'contract_price': '53500', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '23795', 'is_gift': '0', 'energy_number': 'LNG', 'energy_type': '6', 'gun_id': '2955', 'gun_name': '', 'gun_number': '16', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406332', 'pay_time': '1607406332', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['挂账'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '7264', 'order_amount': '7264', 'pay_money': '1', 'discount': 7263, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083325214410', 'master_order_code': '16202012083325214410', 'order_id': '8343869', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083325214410&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '8', 'goods_number': '13.96', 'market_price': '39000', 'energy_number': '97', 'goods_name': '97#车用汽油', 'goods_id': '2002', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344532', 'order_id': '8343869', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2002', 'goods_name': '97#车用汽油', 'goods_sn': '', 'goods_number': '13.96', 'market_price': '39000', 'goods_price': '39000', 'actual_price': '39000', 'contract_price': '39000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '7264', 'is_gift': '0', 'energy_number': '97', 'energy_type': '1', 'gun_id': '302', 'gun_name': '', 'gun_number': '8', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406330', 'pay_time': '1607406330', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '14924', 'order_amount': '14924', 'pay_money': '1', 'discount': 14923, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083302491428', 'master_order_code': '16202012083302491428', 'order_id': '8343868', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083302491428&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '14', 'goods_number': '28.70', 'market_price': '34500', 'energy_number': 'CNG', 'goods_name': 'CNG', 'goods_id': '2026', 'goods_type': '10', 'category_id': '3', 'car_no': '', 'items': [{'item_id': '8344531', 'order_id': '8343868', 'goods_type': '10', 'category_id': '3', 'product_id': '0', 'goods_id': '2026', 'goods_name': 'CNG', 'goods_sn': '', 'goods_number': '28.70', 'market_price': '34500', 'goods_price': '34500', 'actual_price': '34500', 'contract_price': '34500', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '14924', 'is_gift': '0', 'energy_number': 'CNG', 'energy_type': '3', 'gun_id': '2952', 'gun_name': '', 'gun_number': '14', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406328', 'pay_time': '1607406328', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '13234', 'order_amount': '13234', 'pay_money': '1', 'discount': 13233, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083282525905', 'master_order_code': '16202012083282525905', 'order_id': '8343867', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083282525905&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '3', 'goods_number': '25.45', 'market_price': '29000', 'energy_number': '-50', 'goods_name': '-50#车用柴油', 'goods_id': '1406', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344530', 'order_id': '8343867', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1406', 'goods_name': '-50#车用柴油', 'goods_sn': '', 'goods_number': '25.45', 'market_price': '29000', 'goods_price': '29000', 'actual_price': '29000', 'contract_price': '29000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '13234', 'is_gift': '0', 'energy_number': '-50', 'energy_type': '2', 'gun_id': '2947', 'gun_name': '', 'gun_number': '3', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406326', 'pay_time': '1607406326', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['第三方银联'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '7768', 'order_amount': '7768', 'pay_money': '1', 'discount': 7767, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083262281469', 'master_order_code': '16202012083262281469', 'order_id': '8343866', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083262281469&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '5', 'goods_number': '14.93', 'market_price': '33200', 'energy_number': '92', 'goods_name': '92#车用汽油', 'goods_id': '2003', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344529', 'order_id': '8343866', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2003', 'goods_name': '92#车用汽油', 'goods_sn': '', 'goods_number': '14.93', 'market_price': '33200', 'goods_price': '33200', 'actual_price': '33200', 'contract_price': '33200', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '7768', 'is_gift': '0', 'energy_number': '92', 'energy_type': '1', 'gun_id': '299', 'gun_name': '', 'gun_number': '5', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406324', 'pay_time': '1607406324', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '16556', 'order_amount': '16556', 'pay_money': '1', 'discount': 16555, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012083242601405', 'master_order_code': '16202012083242601405', 'order_id': '8343865', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012083242601405&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '15', 'goods_number': '31.83', 'market_price': '20000', 'energy_number': '10', 'goods_name': '10#车用柴油', 'goods_id': '1601', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344528', 'order_id': '8343865', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '1601', 'goods_name': '10#车用柴油', 'goods_sn': '', 'goods_number': '31.83', 'market_price': '20000', 'goods_price': '20000', 'actual_price': '20000', 'contract_price': '20000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '16556', 'is_gift': '0', 'energy_number': '10', 'energy_type': '1', 'gun_id': '2986', 'gun_name': '', 'gun_number': '15', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396053', 'pay_time': '1607396053', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '18621', 'order_amount': '18621', 'pay_money': '1', 'discount': 18620, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012080534626314', 'master_order_code': '16202012080534626314', 'order_id': '8343846', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012080534626314&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '6', 'goods_number': '35.80', 'market_price': '33200', 'energy_number': '92', 'goods_name': '92#车用汽油', 'goods_id': '2003', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '8344509', 'order_id': '8343846', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2003', 'goods_name': '92#车用汽油', 'goods_sn': '', 'goods_number': '35.80', 'market_price': '33200', 'goods_price': '33200', 'actual_price': '33200', 'contract_price': '33200', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '18621', 'is_gift': '0', 'energy_number': '92', 'energy_type': '1', 'gun_id': '2965', 'gun_name': '', 'gun_number': '6', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396043', 'pay_time': '1607396043', 'order_time': '1607395827', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '1100', 'order_amount': '1100', 'pay_money': '1', 'discount': 1099, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012080435303796', 'master_order_code': '16202012080435303796', 'order_id': '8343843', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012080435303796&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '2.12', 'market_price': '45800', 'energy_number': '1', 'goods_name': '0#车用柴油', 'goods_id': '1402', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344506', 'order_id': '8343843', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '2.12', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '1100', 'is_gift': '0', 'energy_number': '1', 'energy_type': '2', 'gun_id': '2946', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396039', 'pay_time': '1607396039', 'order_time': '0', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '2200', 'order_amount': '2200', 'pay_money': '1', 'discount': 2199, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012080392306141', 'master_order_code': '16202012080392306141', 'order_id': '8343841', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012080392306141&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '2', 'goods_number': '4.23', 'market_price': '45800', 'energy_number': '1', 'goods_name': '0#车用柴油', 'goods_id': '1402', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '8344504', 'order_id': '8343841', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '4.23', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '2200', 'is_gift': '0', 'energy_number': '1', 'energy_type': '2', 'gun_id': '2946', 'gun_name': '', 'gun_number': '2', 'car_no': ''}]}], 'request_id': '95f0da81687748f02e490201873e3f4f'}</t>
-  </si>
-  <si>
-    <t>0.696</t>
+    <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '1362', 'create_time': '1607426312', 'pay_time': '1607426312', 'order_time': '1607426312', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '1000', 'order_amount': '1000', 'pay_money': '1000', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '110202012083120701946', 'master_order_code': '110202012083120701946', 'order_id': '5950114', 'order_type': '110', 'order_type_name': 'POS机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=110202012083120701946&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '123', 'goods_number': '1.15', 'market_price': '87000', 'energy_number': '95', 'goods_name': '95#车用汽油', 'goods_id': '2', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '5970222', 'order_id': '5950114', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '2', 'goods_name': '95#车用汽油', 'goods_sn': '', 'goods_number': '1.15', 'market_price': '87000', 'goods_price': '87000', 'actual_price': '87000', 'contract_price': '87000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '1000', 'is_gift': '0', 'energy_number': '95', 'energy_type': '1', 'gun_id': '10351', 'gun_name': '', 'gun_number': '123', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '1362', 'create_time': '1607426309', 'pay_time': '1607426309', 'order_time': '1607426309', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '1000', 'order_amount': '1000', 'pay_money': '1000', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '110202012083095167524', 'master_order_code': '110202012083095167524', 'order_id': '5950113', 'order_type': '110', 'order_type_name': 'POS机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=110202012083095167524&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '1', 'goods_number': '4.76', 'market_price': '21000', 'energy_number': '(高标)0', 'goods_name': '0#车用柴油（高标）', 'goods_id': '108', 'goods_type': '10', 'category_id': '2', 'car_no': '', 'items': [{'item_id': '5970221', 'order_id': '5950113', 'goods_type': '10', 'category_id': '2', 'product_id': '0', 'goods_id': '108', 'goods_name': '0#车用柴油（高标）', 'goods_sn': '', 'goods_number': '4.76', 'market_price': '21000', 'goods_price': '21000', 'actual_price': '21000', 'contract_price': '21000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '1000', 'is_gift': '0', 'energy_number': '(高标)0', 'energy_type': '2', 'gun_id': '10307', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}], 'request_id': '85c28b1e62b941e0e276a8a385b10194'}</t>
+  </si>
+  <si>
+    <t>0.405</t>
   </si>
   <si>
     <t>18</t>
@@ -420,10 +445,10 @@
     <t>{"associateid":"17","associatefield":"None"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '8343872', 'order_type': '16', 'order_code': '16202012083400375227', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '31548', 'order_amount': '31548', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '31547', 'remark': '', 'has_refund': '1', 'refund_fee': '1', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406340', 'cancel_time': '0', 'refund_time': '1607406343', 'update_time': '1607406343', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344535', 'order_id': '8343872', 'goods_type': '10', 'category_id': '2', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '60.660000', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'subtotal': '31548', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '1', 'gun_type': '0', 'gun_id': '2950', 'gun_number': '11', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189305'}], 'payment_info': [{'id': '8011287', 'order_id': '8011287', 'order_code': '16202012083400375227', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083400375227', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406340', 'notify_time': '1607406340', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '3310', 'refund_type': '11', 'refund_no': '11202012083438732867', 'out_refund_no': '', 'refund_fee': '1', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607406343', 'create_time': '1607406343'}]}, 'request_id': '8cbd9aef024b6ea2b03a600ea6d219d8'}</t>
-  </si>
-  <si>
-    <t>0.384</t>
+    <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '5950114', 'order_type': '110', 'order_code': '110202012083120701946', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '1000', 'order_amount': '1000', 'pay_money': '1000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '1', 'refund_fee': '1000', 'platform': '4001', 'admin_id': '1362', 'pay_time': '1607426312', 'cancel_time': '0', 'refund_time': '1607426342', 'update_time': '1607426342', 'create_time': '1607426312', 'recommand_id': 0, 'items': [{'item_id': '5970222', 'order_id': '5950114', 'goods_type': '10', 'category_id': '1', 'goods_id': '2', 'goods_name': '95#车用汽油', 'goods_sn': '', 'goods_number': '1.150000', 'market_price': '87000', 'goods_price': '87000', 'actual_price': '87000', 'contract_price': '87000', 'subtotal': '1000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': '', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '95', 'gun_type': '0', 'gun_id': '10351', 'gun_number': '123', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '5793548'}], 'payment_info': [{'id': '5691046', 'order_id': '5691046', 'order_code': '110202012083120701946', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '110202012083120701946', 'out_trade_no': '110202012083120701946', 'total_fee': '1000', 'pay_fee': '1000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607426312', 'notify_time': '1607426312', 'platform': '0', 'other': ''}], 'refund_info': [{'refund_id': '9275', 'refund_type': '11', 'refund_no': '11202012083420548378', 'out_refund_no': '', 'refund_fee': '1000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607426342', 'create_time': '1607426342'}]}, 'request_id': '807868f41b96dc7a7e19f2ae947a7e29'}</t>
+  </si>
+  <si>
+    <t>1.167</t>
   </si>
   <si>
     <t>19</t>
@@ -441,10 +466,10 @@
     <t>mobile=15672655599&amp;merchant_id=10001&amp;merchant_type=1001</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67094', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'vip_info': {'id': '15122', 'uid': '67611', 'level_id': '1', 'type': '1', 'expire_time': '1609591964', 'wx_card_id': '0', 'wx_card_code': '0', 'is_active': '1', 'is_delete': '0', 'create_time': '2020-12-03 20:52:44', 'station_id': '0', 'appid': 'wx73a8de5287159207', 'merchant_id': '1', 'merchant_type': '1003', 'source': '6', 'is_first': '0', 'update_date': '2020-12-03 20:52:44', 'is_bind': '1', 'min_growth_value': '0', 'max_growth_value': '249', 'level_name': '铜卡会员', 'discount': {'400': 0.2, '401': 0.2, '402': 0.2, '403': 0.2, '1401': 0.2, '1402': 0.2, '1403': 0.2, '1404': 0.2, '1405': 0.2, '1406': 0.2, '1444': 0.2, '1501': 0.2, '1502': 0.2, '1503': 0.2, '1504': 0.2, '1505': 0.2, '1506': 0.2, '1601': 0.2, '1602': 0.2, '1603': 0.2, '1604': 0.2, '1605': 0.2, '1606': 0.2, '2001': 0.2, '2002': 0.2, '2003': 0.2, '2004': 0.2, '2005': 0.2, '2006': 0.2, '2007': 0.2, '2009': 0.2, '2013': 0.2, '2022': 0.2, '2024': 0.2, '2025': 0.2, '2026': 0.2}, 'growth_value': '0', 'real_level_id': '20001', 'discount_type': 1}, 'point_info': {'id': '19313', 'user_id': '67611', 'merchant_id': '10001', 'remain_points': '586', 'issue_points': '586', 'consume_points': '0', 'create_time': '1607392739', 'update_time': '1607395557', 'merchant_type': '1001', 'update_date': '2020-12-08 10:45:57'}, 'car': None, 'card_password': True, 'bind_nl_user': {'user_id': '67605', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'password': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'bind_uid': '67605', 'email': '', 'card_id': '0', 'user_auth_id': '67088', 'auth_type_id': '4', 'app_id': 'fb1de4489b67b8cb', 'open_id': '', 'master_id': ''}, 'bind_ali_user': None}, 'request_id': '2c10e949d63aa21df0889e817dbbb730'}</t>
-  </si>
-  <si>
-    <t>0.288</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '1691198', 'user_name': '', 'full_name': '', 'nickname': '、杭', 'img_url': 'https://wx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'password': '', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'bind_uid': '366128', 'email': '', 'card_id': '0', 'user_auth_id': '1690861', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'bind_ali_user': {'user_id': '366128', 'user_name': '', 'full_name': '', 'nickname': '杭', 'img_url': 'https://tfs.alipayobjects.com/images/partner/T1v_hmXkVgXXXXXXXX', 'password': '', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'bind_uid': '366128', 'email': '', 'card_id': '0', 'user_auth_id': '365883', 'auth_type_id': '3', 'app_id': '2019112069300474', 'open_id': '2088902558355112', 'master_id': '2088902558355112', 'vip_info': None, 'point_info': {'id': '806533', 'user_id': '366128', 'merchant_id': '10002', 'remain_points': '133', 'issue_points': '133', 'consume_points': '0', 'create_time': '1596075344', 'update_time': '0', 'merchant_type': '1001', 'update_date': '2020-07-30 10:15:44'}, 'car': None, 'card_password': False}, 'vip_info': {'id': '183140', 'uid': '1691198', 'growth_value': '6513', 'level_id': '5', 'type': '1', 'expire_time': '1607498877', 'wx_card_id': '0', 'wx_card_code': '0', 'is_active': '1', 'is_delete': '0', 'create_time': '2020-06-30 20:21:05', 'station_id': '0', 'appid': 'wx73a8de5287159207', 'merchant_id': '1', 'merchant_type': '1003', 'is_first': '0', 'source': '1', 'update_date': '2020-12-02 15:27:57', 'min_growth_value': '2000', 'max_growth_value': '2999', 'level_name': '钻石会员', 'discount': {'1': 0.8, '2': 0.8, '3': 0.8, '4': 0.8, '5': 0.8, '6': 0.8, '100': 0.8, '101': 0.8, '102': 0.8, '103': 0.8, '104': 0.8, '105': 0.8, '106': 0.8, '107': 0.8, '108': 0.8, '109': 0.8, '110': 0.8, '111': 0.8, '118': 0.8, '130': 0.8, '131': 0.8, '132': 0.8, '134': 0.8, '150': 0.8, '151': 0.8, '162': 0.8, '400': 0.8, '401': 0.8, '402': 0.8, '403': 0.8, '404': 0.8, '405': 0.8, '600': 0.8, '601': 0.8, '602': 0.8, '603': 0.8, '604': 0.8, '605': 0.8, '610': 0.8}, 'real_level_id': '2613', 'discount_type': 1}, 'point_info': {'id': '571866', 'user_id': '1691198', 'merchant_id': '10002', 'remain_points': '25197', 'issue_points': '29758', 'consume_points': '4561', 'create_time': '1593708940', 'update_time': '1598596058', 'merchant_type': '1001', 'update_date': '2020-08-28 14:27:38'}, 'card_password': True, 'car': None}, 'request_id': '2dddad6ded0051233bc09f81c8adf682'}</t>
+  </si>
+  <si>
+    <t>0.791</t>
   </si>
   <si>
     <t>20</t>
@@ -459,10 +484,10 @@
     <t>user_id=34789&amp;phone=15672655599&amp;scene=1&amp;merchant_id=10001&amp;type=2</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'id': '510', 'merchant_type': '1001', 'merchant_id': '10001', 'name': 'pos云端看', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2025', 'energy_number': 'LNG'}, {'energy_id': '2026', 'energy_number': 'CNG'}, {'energy_id': '2013', 'energy_number': '99'}, {'energy_id': '2005', 'energy_number': '98'}, {'energy_id': '2002', 'energy_number': '97'}, {'energy_id': '2004', 'energy_number': '95'}, {'energy_id': '2007', 'energy_number': '95'}, {'energy_id': '2001', 'energy_number': '93'}, {'energy_id': '2003', 'energy_number': '92'}, {'energy_id': '2022', 'energy_number': '12'}, {'energy_id': '1601', 'energy_number': '10'}, {'energy_id': '1402', 'energy_number': '1'}, {'energy_id': '1502', 'energy_number': '0'}, {'energy_id': '1602', 'energy_number': '0'}, {'energy_id': '1606', 'energy_number': '-50'}, {'energy_id': '1406', 'energy_number': '-50'}, {'energy_id': '1506', 'energy_number': '-50'}, {'energy_id': '1405', 'energy_number': '-35'}, {'energy_id': '1505', 'energy_number': '-35'}, {'energy_id': '1605', 'energy_number': '-35'}, {'energy_id': '1404', 'energy_number': '-20'}, {'energy_id': '1504', 'energy_number': '-20'}, {'energy_id': '1604', 'energy_number': '-20'}, {'energy_id': '1503', 'energy_number': '-10'}, {'energy_id': '1603', 'energy_number': '-10'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '1000', 'min': '100'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '500', 'discount': '5', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1603072743', 'update_time': '1606821455', 'status': '0', 'is_del': '0', 'update_date': '2020-11-25 09:58:07', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '1820', 'card_id': '510', 'code': '2012039041212556', 'user_id': '67605', 'union_id': '', 'left_amount': 500, 'gift_amount': 15, 'create_time': '1606990412', 'update_time': '1607396051', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-12-08 10:54:17', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10001'], 'self': 1}], 'request_id': '5f0afc21c425dfd2eef6c0d7d135dd89'}</t>
-  </si>
-  <si>
-    <t>0.211</t>
+    <t>{'status': 200, 'info': 'Success', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '118', 'energy_number': '98(开票)'}, {'energy_id': '162', 'energy_number': '98(周末价)'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '109', 'card_id': '741', 'code': '2012029444332135', 'user_id': '1691198', 'union_id': '', 'left_amount': 1968.6, 'gift_amount': 400, 'create_time': '1606894443', 'update_time': '1607049076', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-12-04 10:31:23', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10002', '10001', '10010', '10011', '10004', '10012', '20091']}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593412927', 'update_time': '1606975999', 'status': '0', 'is_del': '0', 'update_date': '2020-12-03 14:13:19', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '4', 'card_id': '717', 'code': '2008288607782063', 'user_id': '1691198', 'union_id': '', 'left_amount': 6862.59, 'gift_amount': 40, 'create_time': '1598586077', 'update_time': '1603939157', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-10-27 16:05:53', 'balance_type': '0', 'v_card_code': 'WH001234', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': [{'car_number': '浙D456777'}]}, 'merchant_ids': ['10002']}], 'request_id': '4b9f0f599ce856ef9d542e8c92aef916'}</t>
+  </si>
+  <si>
+    <t>0.711</t>
   </si>
   <si>
     <t>21</t>
@@ -477,10 +502,10 @@
     <t>{"user_id":"34789","amount":50000,"card_code":"2011259442735728","card_id":"510","pay_type":2,"merchant_id":"10001","merchant_type":"1001"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012083461814345', 'order_code_reversal': '54341816438021020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 67611, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10001, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 51500, 'order_amount': 51500, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 1500, 'surplus': 50000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1607406346, 'platform': 4100, 'admin_id': 0, 'update_time': 1607406346, 'create_time': 1607406346, 'order_id': '8343873', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': 51500, 'goods_price': '50000'}]}}</t>
-  </si>
-  <si>
-    <t>0.511</t>
+    <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012083459247325', 'order_code_reversal': '52374295438021020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 1691198, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10002, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 60000, 'order_amount': 60000, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 10000, 'surplus': 50000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1607426345, 'platform': 4100, 'admin_id': 0, 'update_time': 1607426345, 'create_time': 1607426345, 'order_id': '5950117', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': 60000, 'goods_price': '50000'}]}, 'request_id': '03c1aabcbe73f35605197a200ce6d8a8'}</t>
+  </si>
+  <si>
+    <t>0.625</t>
   </si>
   <si>
     <t>22</t>
@@ -495,10 +520,10 @@
     <t>{"pay_type":2,"user_id":"34789","order_code":"50202011257923135802","user_card_code":"2011259442735728","card_id":"510","pay_price":50000,"input_price":50000,"merchant_id":"10001","merchant_type":"1001"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343873', 'order_type': '50', 'order_code': '50202012083461814345', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '67611', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1500', 'remark': '加油卡充值', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406347', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406347', 'create_time': '1607406346', 'recommand_id': 0, 'items': [{'item_id': '8344536', 'order_id': '8343873', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '8011288', 'order_id': '8011288', 'order_code': '50202012083461814345', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012083461814345', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406347', 'notify_time': '1607406347', 'platform': '4100', 'other': ''}]}], 'request_id': '3c4f50b287754c3afb49b52bf11a4b9a'}</t>
-  </si>
-  <si>
-    <t>1.184</t>
+    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '5950117', 'order_type': '50', 'order_code': '50202012083459247325', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '1691198', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '5', 'user_level_type': '1', 'user_level_name': '钻石会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '10000', 'remark': '加油卡充值', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607426346', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607426347', 'create_time': '1607426345', 'recommand_id': 0, 'items': [{'item_id': '5970225', 'order_id': '5950117', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': ''}], 'payment_info': [{'id': '5691049', 'order_id': '5691049', 'order_code': '50202012083459247325', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012083459247325', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607426346', 'notify_time': '1607426346', 'platform': '4100', 'other': ''}]}], 'request_id': 'c0fc6e98e2ac4bf9812a0e12467fde2a'}</t>
+  </si>
+  <si>
+    <t>1.147</t>
   </si>
   <si>
     <t>23</t>
@@ -510,10 +535,13 @@
     <t>加油单-加油卡支付</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '8343874', 'order_type': '16', 'order_code': '16202012083485961264', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '31548', 'order_amount': '31548', 'pay_money': '1', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '31547', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406348', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1607406348', 'create_time': '0', 'recommand_id': 0, 'items': [{'item_id': '8344537', 'order_id': '8343874', 'goods_type': '10', 'category_id': '2', 'goods_id': '1402', 'goods_name': '0#车用柴油', 'goods_sn': '', 'goods_number': '60.660000', 'market_price': '45800', 'goods_price': '45800', 'actual_price': '45800', 'contract_price': '45800', 'subtotal': '31548', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '2', 'energy_number': '1', 'gun_type': '0', 'gun_id': '2950', 'gun_number': '11', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '8189306'}], 'payment_info': [{'id': '8011289', 'order_id': '8011289', 'order_code': '16202012083485961264', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012083485961264', 'out_trade_no': '', 'total_fee': '1', 'pay_fee': '1', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406348', 'notify_time': '1607406348', 'platform': '4100', 'other': ''}]}], 'request_id': '09e5ca4ba42faf5084eba29c3b2c6fa4'}</t>
-  </si>
-  <si>
-    <t>0.580</t>
+    <t>{'status': 500, 'info': '本油站未启用零管，无法支付', 'reason': 500, 'request_id': '8cf19cb9dfc36c24da373d5cbbd2818f'}</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u672c\u6cb9\u7ad9\u672a\u542f\u7528\u96f6\u7ba1\uff0c\u65e0\u6cd5\u652f\u4ed8","reason":500,"request_id":"8cf19cb9dfc36c24da373d5cbbd2818f"}</t>
   </si>
   <si>
     <t>24</t>
@@ -525,10 +553,10 @@
     <t>order_status%5B5%5D=2055&amp;merchant_type=1001&amp;order_status%5B2%5D=1010&amp;order_status%5B3%5D=1020&amp;order_status%5B7%5D=1030&amp;end_time=1606319999&amp;pay_status%5B2%5D=4&amp;merchant_id=10001&amp;pay_status%5B0%5D=1&amp;has_user_info=1&amp;order_status%5B0%5D=2010&amp;page_size=10&amp;pay_status%5B1%5D=2&amp;order_status%5B4%5D=3020&amp;begin_time=1606233600&amp;order_status%5B1%5D=1160&amp;page=1&amp;order_status%5B6%5D=2020&amp;order_type=4</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607406347', 'pay_time': '1607406347', 'order_time': '1607406346', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012083461814345', 'master_order_code': '50202012083461814345', 'order_id': '8343873', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012083461814345&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344536', 'order_id': '8343873', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607396051', 'pay_time': '1607396051', 'order_time': '1607396051', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012080511033843', 'master_order_code': '50202012080511033843', 'order_id': '8343845', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012080511033843&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344508', 'order_id': '8343845', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607394537', 'pay_time': '1607394537', 'order_time': '1607394536', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012085366141141', 'master_order_code': '50202012085366141141', 'order_id': '8343810', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012085366141141&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344473', 'order_id': '8343810', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393781', 'pay_time': '1607393781', 'order_time': '1607393781', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012087811294864', 'master_order_code': '50202012087811294864', 'order_id': '8343797', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012087811294864&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344460', 'order_id': '8343797', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393724', 'pay_time': '1607393724', 'order_time': '1607393724', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012087240565406', 'master_order_code': '50202012087240565406', 'order_id': '8343793', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012087240565406&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344456', 'order_id': '8343793', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393249', 'pay_time': '1607393249', 'order_time': '1607393248', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012082484875658', 'master_order_code': '50202012082484875658', 'order_id': '8343775', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012082484875658&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344438', 'order_id': '8343775', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}, {'merchant_id': '10001', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607393130', 'pay_time': '1607393130', 'order_time': '1607393130', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '67611', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_info': {'user_id': '67611', 'user_name': '', 'full_name': '', 'nickname': '', 'img_url': '', 'gender': '0', 'mobile': '15672655599', 'status': '1', 'create_time': '1606990945', 'update_time': '1606999964', 'bind_uid': '67605', 'bind_time': '1606999964'}, 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'discount': 1500, 'coupon_fee': '0', 'surplus': '0', 'order_status': '3020', 'order_status_name': '已退款', 'order_code': '50202012081300557879', 'master_order_code': '50202012081300557879', 'order_id': '8343763', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 1, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012081300557879&amp;merchant_id=10001', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '51500', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '8344426', 'order_id': '8343763', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}], 'request_id': '11d90ee32159eb1463432e7a9f7a2580'}</t>
-  </si>
-  <si>
-    <t>0.448</t>
+    <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1607426346', 'pay_time': '1607426346', 'order_time': '1607426345', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '1691198', 'user_level_id': '5', 'user_level_type': '1', 'user_level_name': '钻石会员', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '', 'nickname': '、杭', 'img_url': 'https://wx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1607052674', 'bind_uid': '366128', 'bind_time': '1607052674'}, 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'discount': 10000, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012083459247325', 'master_order_code': '50202012083459247325', 'order_id': '5950117', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012083459247325&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '60000', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '5970225', 'order_id': '5950117', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}], 'request_id': '1e48eb9ed2c948ca173264b880d3a90f'}</t>
+  </si>
+  <si>
+    <t>0.469</t>
   </si>
   <si>
     <t>25</t>
@@ -540,10 +568,10 @@
     <t>{"associateid":"23","associatefield":"None"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '8343873', 'order_type': '50', 'order_code': '50202012083461814345', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '67611', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10001', 'user_level_id': '1', 'user_level_type': '1', 'user_level_name': '铜卡会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '51500', 'order_amount': '51500', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '1500', 'remark': '加油卡充值', 'has_refund': '1', 'refund_fee': '50000', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607406347', 'cancel_time': '0', 'refund_time': '1607406352', 'update_time': '1607406352', 'create_time': '1607406346', 'recommand_id': 0, 'items': [{'item_id': '8344536', 'order_id': '8343873', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '51500', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '8011288', 'order_id': '8011288', 'order_code': '50202012083461814345', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012083461814345', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607406347', 'notify_time': '1607406347', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '3311', 'refund_type': '11', 'refund_no': '11202012083525746206', 'out_refund_no': '', 'refund_fee': '50000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607406352', 'create_time': '1607406352'}]}, 'request_id': 'f0c7dc68f498850904325cc392fa3a9b'}</t>
-  </si>
-  <si>
-    <t>0.766</t>
+    <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '5950117', 'order_type': '50', 'order_code': '50202012083459247325', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '1691198', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '5', 'user_level_type': '1', 'user_level_name': '钻石会员', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'shipping_status': 0, 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '10000', 'remark': '加油卡充值', 'has_refund': '1', 'refund_fee': '50000', 'platform': '4100', 'admin_id': '0', 'pay_time': '1607426346', 'cancel_time': '0', 'refund_time': '1607426352', 'update_time': '1607426352', 'create_time': '1607426345', 'recommand_id': 0, 'items': [{'item_id': '5970225', 'order_id': '5950117', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'goods_attr': ''}], 'payment_info': [{'id': '5691049', 'order_id': '5691049', 'order_code': '50202012083459247325', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012083459247325', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1607426346', 'notify_time': '1607426346', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '9276', 'refund_type': '11', 'refund_no': '11202012083528544227', 'out_refund_no': '', 'refund_fee': '50000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'TestAuto双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'TestAuto', 'update_time': '1607426352', 'create_time': '1607426352'}]}, 'request_id': '8896f828da5f3988022ad1754a6ddacd'}</t>
+  </si>
+  <si>
+    <t>1.274</t>
   </si>
   <si>
     <t>26</t>
@@ -558,7 +586,13 @@
     <t>{"merchant_type":1001,"merchant_id":10001,"order_id":"58323","reason":"双屏机接口冒烟测试-弃单","abandon_type":2}</t>
   </si>
   <si>
-    <t>0.285</t>
+    <t>{'status': 500, 'info': '无效加油单', 'reason': 500, 'request_id': 'efee18ff79d8fa956d21421195b08aa4'}</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u65e0\u6548\u52a0\u6cb9\u5355","reason":500,"request_id":"efee18ff79d8fa956d21421195b08aa4"}</t>
   </si>
   <si>
     <t>27</t>
@@ -570,7 +604,13 @@
     <t>{"merchant_type":1001,"merchant_id":10001,"order_id":"58323","reason":"双屏机接口冒烟测试-弃单","abandon_type":1}</t>
   </si>
   <si>
-    <t>0.145</t>
+    <t>{'status': 500, 'info': '无效加油单', 'reason': 500, 'request_id': 'b169092cef112dd41cc82e8d479fb2c1'}</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u65e0\u6548\u52a0\u6cb9\u5355","reason":500,"request_id":"b169092cef112dd41cc82e8d479fb2c1"}</t>
   </si>
   <si>
     <t>28</t>
@@ -585,10 +625,13 @@
     <t>merchant_id=10001&amp;merchant_type=1001&amp;order_id=29867&amp;source=5</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'lock_status': False}, 'request_id': 'e3a7cbec2ff1e32b693c2648c1b1b0a7'}</t>
-  </si>
-  <si>
-    <t>0.103</t>
+    <t>{'status': 500, 'info': '无效加油单', 'reason': 500, 'request_id': 'a13ca2895dd931c05afb20f241a16139'}</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>{"status":500,"info":"\u65e0\u6548\u52a0\u6cb9\u5355","reason":500,"request_id":"a13ca2895dd931c05afb20f241a16139"}</t>
   </si>
   <si>
     <t>29</t>
@@ -597,13 +640,7 @@
     <t>检查加油单锁单</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>{'status': 500, 'info': '该订单正在小程序支付中，请确认后重试', 'reason': 500, 'request_id': '82eb7bfcb78d23d8be6dad8316e1074d'}</t>
-  </si>
-  <si>
-    <t>0.086</t>
+    <t>{'status': 500, 'info': '无效加油单', 'reason': 500, 'request_id': 'bbc18213bf5606d21af027c971384592'}</t>
   </si>
   <si>
     <t>30</t>
@@ -618,7 +655,7 @@
     <t>{"device":[{"regid":"1507bfd3f74e1e1c2bf","type":"1"},{"regid":"0690147908a7cae175df42c40a855cae0d1e","type":"2"}]}</t>
   </si>
   <si>
-    <t>{'info': 'Success', 'status': 200, 'data': None, 'request_id': '7c31b326050980b9424d181789761118'}</t>
+    <t>{'info': 'Success', 'status': 200, 'data': None, 'request_id': '8dac69fbc061ebfa458c4a6209dbca01'}</t>
   </si>
   <si>
     <t>POS机接口冒烟测试</t>
@@ -642,10 +679,10 @@
     <t>token=&amp;data=%7B%22username%22%3A%22TestAuto%22%2C%22password%22%3A%22testauto6%22%2C%22type%22%3A1%2C%22login_type%22%3A1%7D&amp;device_sn=V203198K00506&amp;app_version=1.7.5&amp;device_id=869438031513486&amp;role=0&amp;user_id=1357</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'st_name': '南山第二加油站（零管专用）', 'st_logo': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/12/01/15/cd1e725ae75150479111a0987049.jpg', 'address': '北京市北京市朝阳区机场路', 'contact_tel': '13812342783', 'group_id': 1, 'role': 0, 'gun_oil_arr': [{'gun_id': 428, 'gun_no': 1, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 13199, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 1526, 'gun_no': 11, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '55000'}, {'gun_id': 1518, 'gun_no': 12, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 10598, 'gun_no': 123, 'oil_number': None, 'oil_name': None, 'oil_type': None, 'oil_id': '131', 'price': None}, {'gun_id': 9053, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 16262, 'gun_no': 133, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 13200, 'gun_no': 14, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 13201, 'gun_no': 15, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 13202, 'gun_no': 16, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 17974, 'gun_no': 17, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900'}, {'gun_id': 17975, 'gun_no': 18, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '29000'}, {'gun_id': 17976, 'gun_no': 19, 'oil_number': '-10', 'oil_name': '-10#车用柴油', 'oil_type': '2', 'oil_id': '5', 'price': '21900'}, {'gun_id': 429, 'gun_no': 2, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900'}, {'gun_id': 16263, 'gun_no': 20, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '29000'}, {'gun_id': 17977, 'gun_no': 21, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 17978, 'gun_no': 22, 'oil_number': '-10', 'oil_name': '-10#车用柴油', 'oil_type': '2', 'oil_id': '5', 'price': '21900'}, {'gun_id': 17979, 'gun_no': 23, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '102', 'price': '10000'}, {'gun_id': 17980, 'gun_no': 24, 'oil_number': '89', 'oil_name': '89#车用汽油', 'oil_type': '1', 'oil_id': '6', 'price': '12900'}, {'gun_id': 15671, 'gun_no': 25, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '55000'}, {'gun_id': 17981, 'gun_no': 26, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '29000'}, {'gun_id': 17982, 'gun_no': 27, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '101', 'price': '33000'}, {'gun_id': 17983, 'gun_no': 28, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900'}, {'gun_id': 1516, 'gun_no': 3, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 1517, 'gun_no': 4, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 10281, 'gun_no': 5, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '22000'}, {'gun_id': 10282, 'gun_no': 6, 'oil_number': '车用尿素', 'oil_name': '车用尿素', 'oil_type': '6', 'oil_id': '605', 'price': '70000'}, {'gun_id': 13198, 'gun_no': 7, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000'}, {'gun_id': 1525, 'gun_no': 8, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '22000'}, {'gun_id': 1523, 'gun_no': 9, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '101', 'price': '33000'}, {'gun_id': 16251, 'gun_no': 90, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900'}], 'guns': ['1', '2', '3', '4', '5', '6', '7', '8', '9', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '20', '21', '22', '23', '24', '25', '26', '27', '28', '90', '123', '133'], 'oils': [], 'is_gun': True, 'pub_code_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0', 'small_app_code': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0', 'tips': '', 'visitor_type': '0', 'is_admin': True, 'cash_switch': '1', 'role_name': '管理员', 'token': '977f09b8-bf98-4bf0-fe65-7adf29c0d5d3', 'st_id': '10002', 'u_id': '9228', 'name': 'TestAuto', 'real_name': '自动化测试账号-线上环境', 'mobile': '15672955599', 'merchant_type': '1001', 'per_info': [{'menu_name': 'POS收银', 'menu_path': 'pos_collect'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_plate_pay'}, {'menu_name': '切换油站', 'menu_path': 'search_st'}, {'menu_name': '查看班结记录', 'menu_path': 'summary_record'}, {'menu_name': '查看班结统计', 'menu_path': 'summary_details'}, {'menu_name': '班结打印', 'menu_path': 'summary_print'}, {'menu_name': '一键班结', 'menu_path': 'summary'}, {'menu_name': '订单新增', 'menu_path': 'add_order'}, {'menu_name': '待开发票', 'menu_path': 'open_bill'}, {'menu_name': '查看订单详情', 'menu_path': 'oil_details'}, {'menu_name': '订单申请退款', 'menu_path': 'oil_refund'}, {'menu_name': '订单补打', 'menu_path': 'oil_print'}, {'menu_name': '订单搜索', 'menu_path': 'search_order'}, {'menu_name': '查看订单详情', 'menu_path': 'inspay_details'}, {'menu_name': '订单申请退款', 'menu_path': 'inspay_refund'}, {'menu_name': '订单补打', 'menu_path': 'inspay_print'}, {'menu_name': '查看订单详情', 'menu_path': 'quick_details'}, {'menu_name': '订单申请退款', 'menu_path': 'quick_refund'}, {'menu_name': '订单补打', 'menu_path': 'quick_print'}, {'menu_name': '查看订单详情', 'menu_path': 'store_details'}, {'menu_name': '订单申请退款', 'menu_path': 'store_refund'}, {'menu_name': '订单补打', 'menu_path': 'store_print'}, {'menu_name': '查看订单详情', 'menu_path': 'czb_details'}, {'menu_name': '订单补打', 'menu_path': 'czb_print'}, {'menu_name': '查看订单详情', 'menu_path': 'offline_details'}, {'menu_name': '订单补打', 'menu_path': 'offline_print'}, {'menu_name': '加油卡充值订单详情', 'menu_path': 'card_recharge_details'}, {'menu_name': '加油卡充值订单退款', 'menu_path': 'card_recharge_refund'}, {'menu_name': '加油卡充值订单补打', 'menu_path': 'card_recharge_print'}, {'menu_name': '加油卡开卡', 'menu_path': 'open_card'}, {'menu_name': '加油卡充值', 'menu_path': 'recharge'}, {'menu_name': '修改加油卡密码', 'menu_path': 'card_change_pwd'}, {'menu_name': '加油卡消费订单补打', 'menu_path': 'card_trade_print'}, {'menu_name': '加油卡消费订单退款', 'menu_path': 'card_trade_refund'}, {'menu_name': '车牌支付详情', 'menu_path': 'car_plate_details'}, {'menu_name': '车牌支付补打', 'menu_path': 'car_plate_print'}, {'menu_name': '车牌支付申请退款', 'menu_path': 'car_plate_refund'}, {'menu_name': 'ETC订单详情', 'menu_path': 'etc_details'}, {'menu_name': 'ETC订单申请退款', 'menu_path': 'etc_refund'}, {'menu_name': 'ETC订单补打', 'menu_path': 'etc_print'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_pay'}, {'menu_name': '订单搜索详情', 'menu_path': 'search_details'}, {'menu_name': '查看小票相关信息', 'menu_path': 'bill_check'}, {'menu_name': '编辑小票相关信息', 'menu_path': 'bill_edit'}, {'menu_name': '语音播报', 'menu_path': 'voice_set'}, {'menu_name': '查看语音播报', 'menu_path': 'voice_check'}, {'menu_name': '编辑语音播报', 'menu_path': 'voice_edit'}, {'menu_name': '新增语音播报', 'menu_path': 'add_voice'}, {'menu_name': '删除语音播报', 'menu_path': 'del_voice'}, {'menu_name': '密码设置', 'menu_path': 'pwd_set'}, {'menu_name': '班结设置', 'menu_path': 'summary_set'}, {'menu_name': '车牌付', 'menu_path': 'car_pay'}], 'station_role': 1}, 'request_id': '075ba82138b2888da37a95d0cddfd0f8'}</t>
-  </si>
-  <si>
-    <t>0.807</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'st_name': '南山第二加油站（零管专用）', 'st_logo': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png', 'address': '高新南十一道28滨福世纪广场', 'contact_tel': '13812342783', 'group_id': 1, 'role': 0, 'gun_oil_arr': [{'gun_id': 10307, 'gun_no': 1, 'oil_number': '(高标)0', 'oil_name': '0#车用柴油（高标）', 'oil_type': '2', 'oil_id': '108', 'price': '21000'}, {'gun_id': 10289, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 1526, 'gun_no': 11, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000'}, {'gun_id': 1518, 'gun_no': 12, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10351, 'gun_no': 123, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000'}, {'gun_id': 9053, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10290, 'gun_no': 14, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10291, 'gun_no': 15, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10292, 'gun_no': 16, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 429, 'gun_no': 2, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '56700'}, {'gun_id': 1516, 'gun_no': 3, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 1517, 'gun_no': 4, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 10281, 'gun_no': 5, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '90000'}, {'gun_id': 10282, 'gun_no': 6, 'oil_number': '车用尿素', 'oil_name': '车用尿素', 'oil_type': '6', 'oil_id': '605', 'price': '10000'}, {'gun_id': 10288, 'gun_no': 7, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000'}, {'gun_id': 1525, 'gun_no': 8, 'oil_number': 'LNG', 'oil_name': 'LNG', 'oil_type': '3', 'oil_id': '130', 'price': '40000'}, {'gun_id': 1523, 'gun_no': 9, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '110000'}], 'guns': ['1', '2', '3', '4', '5', '6', '7', '8', '9', '10', '11', '12', '13', '14', '15', '16', '123'], 'oils': [], 'is_gun': True, 'pub_code_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0', 'small_app_code': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0', 'tips': '', 'visitor_type': '0', 'is_admin': True, 'cash_switch': '1', 'role_name': '管理员', 'token': 'd746116f-1186-7789-3ef7-34ec4dab6c85', 'st_id': '10002', 'u_id': '5365', 'name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'mobile': '15672855599', 'merchant_type': '1001', 'per_info': [{'menu_name': 'POS收银', 'menu_path': 'pos_collect'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_plate_pay'}, {'menu_name': '切换油站', 'menu_path': 'search_st'}, {'menu_name': '查看班结记录', 'menu_path': 'summary_record'}, {'menu_name': '查看班结统计', 'menu_path': 'summary_details'}, {'menu_name': '班结打印', 'menu_path': 'summary_print'}, {'menu_name': '一键班结', 'menu_path': 'summary'}, {'menu_name': '订单新增', 'menu_path': 'add_order'}, {'menu_name': '待开发票', 'menu_path': 'open_bill'}, {'menu_name': '查看订单详情', 'menu_path': 'oil_details'}, {'menu_name': '订单申请退款', 'menu_path': 'oil_refund'}, {'menu_name': '订单补打', 'menu_path': 'oil_print'}, {'menu_name': '订单搜索', 'menu_path': 'search_order'}, {'menu_name': '查看订单详情', 'menu_path': 'inspay_details'}, {'menu_name': '订单申请退款', 'menu_path': 'inspay_refund'}, {'menu_name': '订单补打', 'menu_path': 'inspay_print'}, {'menu_name': '查看订单详情', 'menu_path': 'quick_details'}, {'menu_name': '订单申请退款', 'menu_path': 'quick_refund'}, {'menu_name': '订单补打', 'menu_path': 'quick_print'}, {'menu_name': '查看订单详情', 'menu_path': 'store_details'}, {'menu_name': '订单申请退款', 'menu_path': 'store_refund'}, {'menu_name': '订单补打', 'menu_path': 'store_print'}, {'menu_name': '查看订单详情', 'menu_path': 'czb_details'}, {'menu_name': '订单补打', 'menu_path': 'czb_print'}, {'menu_name': '查看订单详情', 'menu_path': 'offline_details'}, {'menu_name': '订单补打', 'menu_path': 'offline_print'}, {'menu_name': '加油卡充值订单详情', 'menu_path': 'card_recharge_details'}, {'menu_name': '加油卡充值订单退款', 'menu_path': 'card_recharge_refund'}, {'menu_name': '加油卡充值订单补打', 'menu_path': 'card_recharge_print'}, {'menu_name': '加油卡开卡', 'menu_path': 'open_card'}, {'menu_name': '加油卡充值', 'menu_path': 'recharge'}, {'menu_name': '修改加油卡密码', 'menu_path': 'card_change_pwd'}, {'menu_name': '加油卡消费订单补打', 'menu_path': 'card_trade_print'}, {'menu_name': '加油卡消费订单退款', 'menu_path': 'card_trade_refund'}, {'menu_name': '车牌支付详情', 'menu_path': 'car_plate_details'}, {'menu_name': '车牌支付补打', 'menu_path': 'car_plate_print'}, {'menu_name': '车牌支付申请退款', 'menu_path': 'car_plate_refund'}, {'menu_name': 'ETC订单详情', 'menu_path': 'etc_details'}, {'menu_name': 'ETC订单申请退款', 'menu_path': 'etc_refund'}, {'menu_name': 'ETC订单补打', 'menu_path': 'etc_print'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_pay'}, {'menu_name': '订单搜索详情', 'menu_path': 'search_details'}, {'menu_name': '查看小票相关信息', 'menu_path': 'bill_check'}, {'menu_name': '编辑小票相关信息', 'menu_path': 'bill_edit'}, {'menu_name': '语音播报', 'menu_path': 'voice_set'}, {'menu_name': '查看语音播报', 'menu_path': 'voice_check'}, {'menu_name': '编辑语音播报', 'menu_path': 'voice_edit'}, {'menu_name': '新增语音播报', 'menu_path': 'add_voice'}, {'menu_name': '删除语音播报', 'menu_path': 'del_voice'}, {'menu_name': '密码设置', 'menu_path': 'pwd_set'}, {'menu_name': '班结设置', 'menu_path': 'summary_set'}, {'menu_name': '车牌付', 'menu_path': 'car_pay'}], 'station_role': 1}, 'request_id': 'a6c0e4f5868840469d0e67844e79e4e6'}</t>
+  </si>
+  <si>
+    <t>2.026</t>
   </si>
   <si>
     <t>商户后台</t>
@@ -660,10 +697,10 @@
     <t>{"admin_name":"TestAuto","password":"testauto6","admin_type":2,"login_type":1,"token":""}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '9228', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-线上环境', 'admin_type': '2', 'mobile': '15672955599', 'last_login_time': '1607310287', 'status': '1', 'create_time': '1606974814', 'update_time': '1607310287', 'token': '83ce5a904d345fa183b382e384aba1cb013eda8b', 'theme_config': {'platform_name': '能链云', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 418, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'menu_name': '创建优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add-', 'leve': 5}, {'menu_id': '401', 'menu_type': '2', 'parent_id': '297', 'menu_name': '营销工具', 'menu_path': '', 'vue_path': 'activity_add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add', 'leve': 4}, {'menu_id': '301', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建价立减', 'menu_path': '', 'vue_path': 'cut', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-cut', 'leve': 5}, {'menu_id': '302', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额送', 'menu_path': '', 'vue_path': 'reward', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-reward', 'leve': 5}, {'menu_id': '303', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建幸运抽奖', 'menu_path': '', 'vue_path': 'lucky', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-lucky', 'leve': 5}, {'menu_id': '304', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建免单', 'menu_path': '', 'vue_path': 'free', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-free', 'leve': 5}, {'menu_id': '305', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建好友邀请', 'menu_path': '', 'vue_path': 'invite', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-invite', 'leve': 5}, {'menu_id': '562', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建红包', 'menu_path': '', 'vue_path': 'redpacketadd', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-redpacketadd', 'leve': 5}, {'menu_id': '672', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建手动发券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '712', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额减', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '758', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建充值送券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '560', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list', 'leve': 3}, {'menu_id': '402', 'menu_type': '2', 'parent_id': '560', 'menu_name': '活动列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list', 'leve': 4}, {'menu_id': '578', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list-', 'leve': 5}, {'menu_id': '887', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path':</t>
-  </si>
-  <si>
-    <t>0.633</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5365', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'admin_type': '2', 'mobile': '15672855599', 'last_login_time': '1607426302', 'status': '1', 'create_time': '1606974646', 'update_time': '1607426302', 'token': '0ecb112408b2bd8577712ca1312182865a608e00', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
+  </si>
+  <si>
+    <t>0.719</t>
   </si>
   <si>
     <t>油枪列表</t>
@@ -678,10 +715,10 @@
     <t>{"type":1,"merchant_type":"1001","status":1,"token":"62479b451c1347fd06be6e684ce8b737823a4bb0","merchant_id":"10001"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '428', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '3', 'group_num': 'test', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '4', 'group_num': '测试001', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '22000', 'admin_id': '619', 'start_time': '1603332983', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469892', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '13198', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '604', 'group_num': 'test', 'status': '1', 'price': '22000', 'admin_id': '619', 'start_time': '1603332983', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '101', 'group_num': '测试001', 'status': '1', 'price': '33000', 'admin_id': '927', 'start_time': '1591003756', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13199', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '55000', 'admin_id': '1072', 'start_time': '1594958939', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13200', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13201', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13202', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17974', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '4', 'group_num': '', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '17975', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17976', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '19号枪', 'gun_number': '19', 'gun_type': '1001', 'energy_id': '5', 'group_num': '', 'status': '1', 'price': '21900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '16263', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17977', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17978', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '5', 'group_num': '', 'status': '1', 'price': '21900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '17979', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '102', 'group_num': '', 'status': '1', 'price': '10000', 'admin_id': '1072', 'start_time': '1594953203', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17980', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '6', 'group_num': '', 'status': '1', 'price': '12900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '15671', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '25号枪', 'gun_number': '25', 'gun_type': '1001', 'energy_id': '105', 'group_num': '', 'status': '1', 'price': '55000', 'admin_id': '1072', 'start_time': '1594958939', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17981', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '26号枪', 'gun_number': '26', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17982', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '27号枪', 'gun_number': '27', 'gun_type': '1001', 'energy_id': '101', 'group_num': '', 'status': '1', 'price': '33000', 'admin_id': '927', 'start_time': '1591003756', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17983', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '28号枪', 'gun_number': '28', 'gun_type': '1001', 'energy_id': '4', 'group_num': '', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '16251', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '90号枪', 'gun_number': '90', 'gun_type': '1001', 'energy_id': '4', 'group_num': '', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}, {'id': '10598', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '131', 'group_num': '', 'status': '1', 'retail_status': 2}, {'id': '16262', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '133号枪', 'gun_number': '133', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}], 'request_id': '1a4b4277b6d7ae47bdd36d2535ab18a8'}</t>
-  </si>
-  <si>
-    <t>0.429</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10351', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}], 'request_id': '5669d4085a4a1c2f98516f3979784a9e'}</t>
+  </si>
+  <si>
+    <t>1.067</t>
   </si>
   <si>
     <t>POS机首页</t>
@@ -696,10 +733,10 @@
     <t>token=64dbb3b3-7e3e-04ce-7e68-3895d5f3b32f&amp;data=%7B%22limit%22%3A4%2C%22offset%22%3A0%2C%22begin_time%22%3A%22%22%2C%22end_time%22%3A%221606444332%22%2C%22searchStr%22%3A%22%22%2C%22goods_type%22%3A%22%22%2C%22order_status%22%3A%22%5B1160%2C%202010%5D%22%2C%22order_type%22%3A%22%5B10%2C%2013%2C%2015%2C%2018%2C%2012%2C%20110%2C%2017%2C%2016%2C%2014%2C%2040%5D%22%2C%22st_id%22%3A10001%7D&amp;device_sn=V203198K00506&amp;app_version=1.7.5&amp;device_id=869438031513486&amp;role=0&amp;user_id=1344</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'items': [{'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '车用尿素', 'oil_gun': '6', 'oil_amount': '1.060000', 'car_no': '', 'pay_time': '2020-11-27 09:47:30', 'order_price': 5, 'order_type': '13', 'order_code': '13202011275824485155', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '98', 'oil_gun': '4', 'oil_amount': '0.380000', 'car_no': '', 'pay_time': '2020-11-26 18:16:17', 'order_price': 2, 'order_type': '16', 'order_code': '16202011267773569884', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '98', 'oil_gun': '3', 'oil_amount': '0.290000', 'car_no': '', 'pay_time': '2020-11-26 16:15:15', 'order_price': 2, 'order_type': '17', 'order_code': '17202011265137535179', 'credit': 0, 'mobile': '18898616550', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '98', 'oil_gun': '3', 'oil_amount': '0.290000', 'car_no': '', 'pay_time': '2020-11-26 16:11:50', 'order_price': 2, 'order_type': '17', 'order_code': '17202011263092116693', 'credit': 0, 'mobile': '18898616550', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}]}, 'request_id': 'a4c326148f9bef7a3ee45e2299713d2e'}</t>
-  </si>
-  <si>
-    <t>0.471</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'items': [{'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '可兰素', 'oil_gun': '5', 'oil_amount': '0.000000', 'car_no': '', 'pay_time': '2020-11-26 16:45:16', 'order_price': 0.01, 'order_type': '17', 'order_code': '17202011263147742172', 'credit': 0, 'mobile': '17722829341', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '(高标)0', 'oil_gun': '1', 'oil_amount': '0.150000', 'car_no': '', 'pay_time': '2020-11-23 14:57:20', 'order_price': 2, 'order_type': '16', 'order_code': '16202011236409148569', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '(高标)0', 'oil_gun': '1', 'oil_amount': '0.320000', 'car_no': '', 'pay_time': '2020-11-23 14:57:02', 'order_price': 2, 'order_type': '16', 'order_code': '16202011236225827187', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '(高标)0', 'oil_gun': '1', 'oil_amount': '0.160000', 'car_no': '', 'pay_time': '2020-11-23 14:56:53', 'order_price': 1, 'order_type': '16', 'order_code': '16202011236135551468', 'credit': 0, 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}]}, 'request_id': '4d0c700fabc80e468c93838279038b30'}</t>
+  </si>
+  <si>
+    <t>0.546</t>
   </si>
   <si>
     <t>POS机油品</t>
@@ -714,7 +751,10 @@
     <t>token=596b5344-63a2-91b5-3600-e249a8fd5693&amp;data=%7B%22st_type%22%3A1001%2C%22st_id%22%3A10001%7D&amp;device_sn=V203198K00506&amp;app_version=1.7.5&amp;device_id=869438031513486&amp;role=0&amp;user_id=1344</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'gun_oil_arr': [{'gun_id': 428, 'gun_no': 1, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 13199, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1526, 'gun_no': 11, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '55000', 'market_price': '55000', 'real_price': 55000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1518, 'gun_no': 12, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 9053, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 16262, 'gun_no': 133, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 13200, 'gun_no': 14, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 13201, 'gun_no': 15, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 13202, 'gun_no': 16, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17974, 'gun_no': 17, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900', 'market_price': '31900', 'real_price': 31900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17975, 'gun_no': 18, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '29000', 'market_price': '29000', 'real_price': 29000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17976, 'gun_no': 19, 'oil_number': '-10', 'oil_name': '-10#车用柴油', 'oil_type': '2', 'oil_id': '5', 'price': '21900', 'market_price': '21900', 'real_price': 21900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 429, 'gun_no': 2, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900', 'market_price': '31900', 'real_price': 31900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 16263, 'gun_no': 20, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '29000', 'market_price': '29000', 'real_price': 29000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17977, 'gun_no': 21, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17978, 'gun_no': 22, 'oil_number': '-10', 'oil_name': '-10#车用柴油', 'oil_type': '2', 'oil_id': '5', 'price': '21900', 'market_price': '21900', 'real_price': 21900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17979, 'gun_no': 23, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '102', 'price': '10000', 'market_price': '10000', 'real_price': 10000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17980, 'gun_no': 24, 'oil_number': '89', 'oil_name': '89#车用汽油', 'oil_type': '1', 'oil_id': '6', 'price': '12900', 'market_price': '12900', 'real_price': 12900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 15671, 'gun_no': 25, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '55000', 'market_price': '55000', 'real_price': 55000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17981, 'gun_no': 26, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '29000', 'market_price': '29000', 'real_price': 29000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17982, 'gun_no': 27, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '101', 'price': '33000', 'market_price': '33000', 'real_price': 33000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 17983, 'gun_no': 28, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900', 'market_price': '31900', 'real_price': 31900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1516, 'gun_no': 3, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1517, 'gun_no': 4, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10281, 'gun_no': 5, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '22000', 'market_price': '22000', 'real_price': 22000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 10282, 'gun_no': 6, 'oil_number': '车用尿素', 'oil_name': '车用尿素', 'oil_type': '6', 'oil_id': '605', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 13198, 'gun_no': 7, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '70000', 'market_price': '70000', 'real_price': 70000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1525, 'gun_no': 8, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '22000', 'market_price': '22000', 'real_price': 22000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 1523, 'gun_no': 9, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '101', 'price': '33000', 'market_price': '33000', 'real_price': 33000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 16251, 'gun_no': 90, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '4', 'price': '31900', 'market_price': '31900', 'real_price': 31900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}]}, 'request_id': '2680d860a1353ee3b8ad6e3251a747d8'}</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'gun_oil_arr': [{'gun_id': 10307, 'gun_no': 1, 'oil_number': '(高标)0', 'oil_name': '0#车用柴油（高标）', 'oil_type': '2', 'oil_id': '108', 'price': '21000', 'market_price': '21000', 'real_price': 21000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10289, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1526, 'gun_no': 11, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000', 'market_price': '87000', 'real_price': 87000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1518, 'gun_no': 12, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10351, 'gun_no': 123, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2', 'price': '87000', 'market_price': '87000', 'real_price': 87000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 9053, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10290, 'gun_no': 14, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10291, 'gun_no': 15, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10292, 'gun_no': 16, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 429, 'gun_no': 2, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '1', 'price': '56700', 'market_price': '56700', 'real_price': 56700, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1516, 'gun_no': 3, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1517, 'gun_no': 4, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 10281, 'gun_no': 5, 'oil_number': '可兰素', 'oil_name': '可兰素', 'oil_type': '6', 'oil_id': '604', 'price': '90000', 'market_price': '90000', 'real_price': 90000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 10282, 'gun_no': 6, 'oil_number': '车用尿素', 'oil_name': '车用尿素', 'oil_type': '6', 'oil_id': '605', 'price': '10000', 'market_price': '10000', 'real_price': 10000, 'standard_name': '尿素', 'icon_url': ''}, {'gun_id': 10288, 'gun_no': 7, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '3', 'price': '80000', 'market_price': '80000', 'real_price': 80000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}, {'gun_id': 1525, 'gun_no': 8, 'oil_number': 'LNG', 'oil_name': 'LNG', 'oil_type': '3', 'oil_id': '130', 'price': '40000', 'market_price': '40000', 'real_price': 40000, 'standard_name': '天然气', 'icon_url': ''}, {'gun_id': 1523, 'gun_no': 9, 'oil_number': '(高标)92', 'oil_name': '92#车用汽油（高标）', 'oil_type': '1', 'oil_id': '105', 'price': '110000', 'market_price': '110000', 'real_price': 110000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png'}]}, 'request_id': '365376acc0ea7ffb49add361248cab74'}</t>
+  </si>
+  <si>
+    <t>0.293</t>
   </si>
   <si>
     <t>POS机加油员</t>
@@ -729,10 +769,10 @@
     <t>merchant_type=1001&amp;app_version=1.7.7&amp;device_id=869438031513486&amp;merchant_id=10001&amp;rule_type=1&amp;token=5889f1a3-e24b-104c-4feb-2b1f4438e213&amp;user_id=1421&amp;is_on_duty=0</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'count': 6, 'list': [{'id': '251', 'number': '1', 'rule_type': '1', 'is_on_duty': '1', 'admin_id': '107', 'admin_name': 'hm12345', 'real_name': '黄铭'}, {'id': '252', 'number': '2', 'rule_type': '1', 'is_on_duty': '1', 'admin_id': '552', 'admin_name': 'youlian8', 'real_name': '南山第二加油站'}, {'id': '253', 'number': '3', 'rule_type': '1', 'is_on_duty': '1', 'admin_id': '4252', 'admin_name': 'byhjiayou', 'real_name': '通知包加油员'}, {'id': '254', 'number': '4', 'rule_type': '1', 'is_on_duty': '1', 'admin_id': '3439', 'admin_name': 'cgk000003', 'real_name': '广科单站加油员'}, {'id': '255', 'number': '5', 'rule_type': '1', 'is_on_duty': '1', 'admin_id': '5246', 'admin_name': 'jiayouyuan', 'real_name': '黄玉旦'}, {'id': '3640', 'number': '6', 'rule_type': '1', 'is_on_duty': '1', 'admin_id': '8206', 'admin_name': 'byhns02', 'real_name': '卜英豪'}]}, 'request_id': '3d68465d79558dcdd654d8dd650a014a'}</t>
-  </si>
-  <si>
-    <t>0.303</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'count': 0, 'list': []}, 'request_id': 'c127c20b6e88f8d4dbfa18e32b22d2c2'}</t>
+  </si>
+  <si>
+    <t>0.216</t>
   </si>
   <si>
     <t>POS机收银</t>
@@ -747,19 +787,19 @@
     <t>token=5ca68c3b-4cb5-483d-2251-7bf2e5cff83e&amp;data=%7B%22gun_number%22%3A%22123%22%2C%22gun_id%22%3A3073%2C%22oil_name%22%3A%220%23%E8%BD%A6%E7%94%A8%E6%9F%B4%E6%B2%B9%22%2C%22energy_type%22%3A%222%22%2C%22energy_number%22%3A%221%22%2C%22oil_id%22%3A%221402%22%2C%22price%22%3A%2245800%22%2C%22code%22%3A%22%22%2C%22amount%22%3A%2210%22%2C%22volume%22%3A%22%22%2C%22retail_order_id%22%3A%22%22%2C%22pay_way%22%3A%222%22%2C%22st_id%22%3A10001%7D&amp;device_sn=V203198K00506&amp;app_version=1.7.7&amp;device_id=869438031513486&amp;role=0&amp;user_id=1344</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012072933919693', 'out_trade_no': '110202012072933919693', 'user_info': '', 'oil_code': '110202012072933919693', 'master_code': '110202012072933919693', 'pay_time': '2020-12-07 11:04:53', 'create_time': '2020-12-07 11:04:53', 'cancel_status': 0, 'st_id': 10002, 'order_price': 10, 'pay_amt': 10, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '98', 'gun_no': '1', 'oil_gun': '1', 'oil_name': '98#车用汽油', 'orig_sell_price': 7, 'yy_sell_price': 70000, 'oil_amount': 1.43}, 'request_id': 'b747d406fcbb9b1d8379c707cc87b2dc'}</t>
-  </si>
-  <si>
-    <t>0.998</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012083095167524', 'out_trade_no': '110202012083095167524', 'user_info': '', 'oil_code': '110202012083095167524', 'master_code': '110202012083095167524', 'pay_time': '2020-12-08 19:18:29', 'create_time': '2020-12-08 19:18:29', 'cancel_status': 0, 'st_id': 10002, 'order_price': 10, 'pay_amt': 10, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '(高标)0', 'gun_no': '1', 'oil_gun': '1', 'oil_name': '0#车用柴油（高标）', 'orig_sell_price': 2.1, 'yy_sell_price': 21000, 'oil_amount': 4.76}, 'request_id': '92940dc4f49bfe3c8ba8b87860f04217'}</t>
+  </si>
+  <si>
+    <t>1.437</t>
   </si>
   <si>
     <t>非零管-输入金额-现金支付</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012072947285060', 'out_trade_no': '110202012072947285060', 'user_info': '', 'oil_code': '110202012072947285060', 'master_code': '110202012072947285060', 'pay_time': '2020-12-07 11:04:54', 'create_time': '2020-12-07 11:04:54', 'cancel_status': 0, 'st_id': 10002, 'order_price': 10, 'pay_amt': 10, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '0', 'gun_no': '90', 'oil_gun': '90', 'oil_name': '0#车用柴油', 'orig_sell_price': 3.19, 'yy_sell_price': 31900, 'oil_amount': 3.13}, 'request_id': 'd86d14acd704af540df5fa2598d34238'}</t>
-  </si>
-  <si>
-    <t>0.988</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012083120701946', 'out_trade_no': '110202012083120701946', 'user_info': '', 'oil_code': '110202012083120701946', 'master_code': '110202012083120701946', 'pay_time': '2020-12-08 19:18:32', 'create_time': '2020-12-08 19:18:32', 'cancel_status': 0, 'st_id': 10002, 'order_price': 10, 'pay_amt': 10, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '95', 'gun_no': '123', 'oil_gun': '123', 'oil_name': '95#车用汽油', 'orig_sell_price': 8.7, 'yy_sell_price': 87000, 'oil_amount': 1.15}, 'request_id': '37296e4a1eaf3ee41deefdfa08057ca2'}</t>
+  </si>
+  <si>
+    <t>1.832</t>
   </si>
   <si>
     <t>token=&amp;data=%7B%22username%22%3A%22hang0813%22%2C%22password%22%3A%22wh19940813%22%2C%22type%22%3A1%2C%22login_type%22%3A1%7D&amp;device_sn=V203198K00506&amp;app_version=1.7.5&amp;device_id=869438031513486&amp;role=0&amp;user_id=1357</t>
@@ -768,10 +808,10 @@
     <t>商户后台接口冒烟测试</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '9228', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-线上环境', 'admin_type': '2', 'mobile': '15672955599', 'last_login_time': '1607310297', 'status': '1', 'create_time': '1606974814', 'update_time': '1607310297', 'token': 'c87e19f16a470c49048e400bf79d8f99fabdfcce', 'theme_config': {'platform_name': '能链云', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 418, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'menu_name': '创建优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add-', 'leve': 5}, {'menu_id': '401', 'menu_type': '2', 'parent_id': '297', 'menu_name': '营销工具', 'menu_path': '', 'vue_path': 'activity_add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add', 'leve': 4}, {'menu_id': '301', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建价立减', 'menu_path': '', 'vue_path': 'cut', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-cut', 'leve': 5}, {'menu_id': '302', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额送', 'menu_path': '', 'vue_path': 'reward', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-reward', 'leve': 5}, {'menu_id': '303', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建幸运抽奖', 'menu_path': '', 'vue_path': 'lucky', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-lucky', 'leve': 5}, {'menu_id': '304', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建免单', 'menu_path': '', 'vue_path': 'free', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-free', 'leve': 5}, {'menu_id': '305', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建好友邀请', 'menu_path': '', 'vue_path': 'invite', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-invite', 'leve': 5}, {'menu_id': '562', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建红包', 'menu_path': '', 'vue_path': 'redpacketadd', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-redpacketadd', 'leve': 5}, {'menu_id': '672', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建手动发券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '712', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额减', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '758', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建充值送券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '560', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list', 'leve': 3}, {'menu_id': '402', 'menu_type': '2', 'parent_id': '560', 'menu_name': '活动列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list', 'leve': 4}, {'menu_id': '578', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list-', 'leve': 5}, {'menu_id': '887', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path':</t>
-  </si>
-  <si>
-    <t>0.648</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5365', 'admin_name': 'TestAuto', 'real_name': '自动化测试账号-预发布环境', 'admin_type': '2', 'mobile': '15672855599', 'last_login_time': '1607426316', 'status': '1', 'create_time': '1606974646', 'update_time': '1607426316', 'token': '0b5bd6bde27c9c659891df632b9b06d1ae2eb994', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
+  </si>
+  <si>
+    <t>1.298</t>
   </si>
   <si>
     <t>油品</t>
@@ -786,16 +826,13 @@
     <t>{"merchant_type":1001,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '26282', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '7.00', 'admin_id': '820', 'start_time': '2020-10-24 00:18:12', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': '黄玉旦'}, {'id': '26281', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '7.00', 'admin_id': '820', 'start_time': '2020-10-24 00:09:42', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '黄玉旦'}, {'id': '24817', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '2.20', 'admin_id': '619', 'start_time': '2020-10-22 10:16:23', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': '钟伟-集团测试'}, {'id': '22226', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '2.90', 'admin_id': '929', 'start_time': '2020-09-27 15:32:02', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '杨高朋'}, {'id': '22221', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.29', 'admin_id': '929', 'start_time': '2020-09-27 15:32:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '杨高朋'}, {'id': '22223', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '3.19', 'admin_id': '929', 'start_time': '2020-09-27 15:32:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': '杨高朋'}, {'id': '22222', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '2.19', 'admin_id': '929', 'start_time': '2020-09-27 15:32:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': '杨高朋'}, {'id': '13817', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '5.50', 'admin_id': '1072', 'start_time': '2020-07-17 12:08:59', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '王杭'}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '王杭'}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '卜英豪'}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': '卜英豪'}, {'id': '8578', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '101', 'price': '3.30', 'admin_id': '927', 'start_time': '2020-06-01 17:29:16', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': '卜英豪'}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': '卜英豪'}], 'request_id': '2ebb8e9d8fdcedd1218e8bdf73d7f983'}</t>
-  </si>
-  <si>
-    <t>0.290</t>
-  </si>
-  <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '428', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '3', 'group_num': 'test', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '4', 'group_num': '测试001', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '22000', 'admin_id': '619', 'start_time': '1603332983', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469892', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '13198', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '604', 'group_num': 'test', 'status': '1', 'price': '22000', 'admin_id': '619', 'start_time': '1603332983', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '101', 'group_num': '测试001', 'status': '1', 'price': '33000', 'admin_id': '927', 'start_time': '1591003756', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13199', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '55000', 'admin_id': '1072', 'start_time': '1594958939', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13200', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13201', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '13202', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17974', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '4', 'group_num': '', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '17975', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17976', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '19号枪', 'gun_number': '19', 'gun_type': '1001', 'energy_id': '5', 'group_num': '', 'status': '1', 'price': '21900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '16263', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17977', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17978', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '5', 'group_num': '', 'status': '1', 'price': '21900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '17979', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '102', 'group_num': '', 'status': '1', 'price': '10000', 'admin_id': '1072', 'start_time': '1594953203', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17980', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '6', 'group_num': '', 'status': '1', 'price': '12900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '15671', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '25号枪', 'gun_number': '25', 'gun_type': '1001', 'energy_id': '105', 'group_num': '', 'status': '1', 'price': '55000', 'admin_id': '1072', 'start_time': '1594958939', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17981', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '26号枪', 'gun_number': '26', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17982', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '27号枪', 'gun_number': '27', 'gun_type': '1001', 'energy_id': '101', 'group_num': '', 'status': '1', 'price': '33000', 'admin_id': '927', 'start_time': '1591003756', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '17983', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '28号枪', 'gun_number': '28', 'gun_type': '1001', 'energy_id': '4', 'group_num': '', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '16251', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '90号枪', 'gun_number': '90', 'gun_type': '1001', 'energy_id': '4', 'group_num': '', 'status': '1', 'price': '31900', 'admin_id': '929', 'start_time': '1601191922', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}, {'id': '10598', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '131', 'group_num': '', 'status': '1', 'retail_status': 2}, {'id': '16262', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '133号枪', 'gun_number': '133', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '70000', 'admin_id': '820', 'start_time': '1603469382', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}], 'request_id': 'dcaf2fa7ae47b93003e7756d15c0e54c'}</t>
-  </si>
-  <si>
-    <t>0.395</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '15471', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '9.00', 'admin_id': '4241', 'start_time': '2020-10-29 11:10:50', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15464', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '5.67', 'admin_id': '820', 'start_time': '2020-10-23 22:14:36', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15461', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '11.00', 'admin_id': '820', 'start_time': '2020-10-23 21:57:38', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15458', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '8.00', 'admin_id': '820', 'start_time': '2020-10-23 21:29:29', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15442', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '2', 'price': '8.70', 'admin_id': '820', 'start_time': '2020-10-23 19:18:48', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15432', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '130', 'price': '4.00', 'admin_id': '820', 'start_time': '2020-10-23 18:08:09', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'unit': 'kg', 'status': 1, 'admin_name': ''}, {'id': '15409', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.00', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15411', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '0.98', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15410', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '0.95', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15389', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '1.00', 'admin_id': '820', 'start_time': '2020-08-06 17:28:50', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}], 'request_id': '143ceaf349f54895ed9c843f9f7416a2'}</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10351', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}], 'request_id': 'f936fce7e0e63f7834bfb32a103ea324'}</t>
   </si>
   <si>
     <t>获取加油卡列表</t>
@@ -810,10 +847,10 @@
     <t>{"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '1029', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '测试积分了', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '605', 'energy_number': '车用尿素'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '6', 'energy_number': '89'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0.01'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1597287600', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-08-13 11:00:00', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '1607065289', 'status': '0', 'is_del': '0', 'update_date': '2020-12-04 15:01:29', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002', '20091'], 'merchant_names': {'10002': '南山第二加油站（零管专用）', '20091': '南山第四加油站（柴油）'}}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '605', 'energy_number': '车用尿素'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '6', 'energy_number': '89'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '0.5', 'discount': '0.1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593412927', 'update_time': '1607065289', 'status': '0', 'is_del': '0', 'update_date': '2020-12-04 15:01:29', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '104', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '加油卡卡', 'type': 1, 'card_type': '1', 'style_type': '1', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/71b0969fc36bb90ed93fbb74adbb.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '567', 'min': '1'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1583723948', 'update_time': '1607065289', 'status': '0', 'is_del': '0', 'update_date': '2020-12-04 15:01:29', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '103', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '加油卡卡', 'type': 1, 'card_type': '1', 'style_type': 1, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/71b0969fc36bb90ed93fbb74adbb.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '1000', 'min': '1'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1583723632', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-03-09 11:13:52', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '53', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '加油卡卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '10000', 'min': '1'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1581564798', 'update_time': '1582083794', 'status': '0', 'is_del': '0', 'update_date': '2020-02-13 11:33:18', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '30', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '测试混合颜色', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}, {'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100', 'min': '1'}, 'amount': {'fixed': '1', 'defined': '0'}, 'discount_rule': [{'money': '100', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1578988441', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-01-14 15:54:01', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '29', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '柴油加油卡1', 'type': 2, 'card_type': '1', 'style_type': '1', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/71b0969fc36bb90ed93fbb74adbb.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 9.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': 9.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1578886455', 'update_time': '1607065289', 'status': '0', 'is_del': '0', 'update_date': '2020-12-04 15:01:29', 'customer_id': '0', 'type_name': '柴油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '27', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '测试加油卡', 'type': 1, 'card_type': '1', 'style_type': 1, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/71b0969fc36bb90ed93fbb74adbb.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100', 'min': '0.01'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '0.01', 'discount': '20', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1578474859', 'update_time': '1578478661', 'status': '0', 'is_del': '0', 'update_date': '2020-01-08 17:14:19', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '26', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '最新优惠', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}, {'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '2', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100', 'min': '0.01'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '0.01', 'discount': '40', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '0.02', 'discount': '20', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1578469117', 'update_time': '1578472234', 'status': '0', 'is_del': '0', 'update_date': '2020-01-08 15:38:37', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '9', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '智慧加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}, {'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '2', 'limit': {'max': '123456.1', 'min': '123'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '123456.1', 'discount': '12', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '123456.0', 'discount': '12', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576236630', 'update_time': '1576498499', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 19:30:30', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '8', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '汽油加油卡', 'type': 1, 'card_type': '1', 'style_type': 1, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/71b0969fc36bb90ed93fbb74adbb.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}], 'carrier': '1', 'invoice_type': '2', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '123456.99', 'min': '123456.12'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '123456.99', 'discount': '123456.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576226269', 'update_time': '1576498542', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 16:37:49', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '7', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '柴油加油卡', 'type': 2, 'card_type': '1', 'style_type': 2, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/2143f30c32366b5fb6d899f2d828.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '2', 'limit': {'max': '999999.99', 'min': '0.01'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '999999.98', 'discount': '999999.97', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576225380', 'update_time': '1576498531', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 16:23:00', 'customer_id': '0', 'type_name': '柴油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '5', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '通用加油卡222', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}, {'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '1.发您分。\n2.到了那可能。', 'discount': '2', 'limit': {'max': '1000', 'min': '0.02'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '12', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576208270', 'update_time': '1578479277', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 11:37:50', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '4', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '会员加油卡', 'type': 2, 'card_type': '1', 'style_type': 2, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/2143f30c32366b5fb6d899f2d828.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '999999.99', 'min': '0.01'}, 'amount': {'fixed': '1', 'defined': '1'}, 'discount_rule': [{'money': '0.01', 'discount': '999999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576203992', 'update_time': '1576498574', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 10:26:32', 'customer_id': '0', 'type_name': '柴油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '3', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '我要改规则赠送卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}, {'energy_id': '4', 'energy_number': '0'}], 'carrier': '1', 'invoice_type': '2', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '10000', 'min': '0.01'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '0.02', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '0.03', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576203783', 'update_time': '1577442901', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 10:23:03', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}, {'id': '2', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '98号加油卡', 'type': 1, 'card_type': '1', 'style_type': 1, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/71b0969fc36bb90ed93fbb74adbb.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': 'hahh\n1.你    可不能看\n😊😉', 'discount': '2', 'limit': {'max': '100', 'min': '1'}, 'amount': {'fixed': '1', 'defined': '0'}, 'discount_rule': [{'money': '100', 'discount': '99.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1576202507', 'update_time': '1576498639', 'status': '0', 'is_del': '0', 'update_date': '2019-12-13 10:01:47', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}], 'request_id': 'efea97e72bdcd22ec8b17d9047d9c684'}</t>
-  </si>
-  <si>
-    <t>0.317</t>
+    <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '118', 'energy_number': '98(开票)'}, {'energy_id': '162', 'energy_number': '98(周末价)'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002', '10001', '10010', '10011', '10004', '10012', '20091'], 'merchant_names': {'10002': '南山第二加油站（零管专用）', '10001': '能链第一加油站', '10010': '测试验收第二加油站', '10011': '测试验收第一加油站', '10004': '由连网络测试加油站', '10012': '费率专用', '20091': '南山第四加油站'}}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/2020/11/24/11/5f13040ce79b5929d4ac982a449c.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 20, 'create_time': '1593412927', 'update_time': '1606975999', 'status': '0', 'is_del': '0', 'update_date': '2020-12-03 14:13:19', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '南山第二加油站（零管专用）'}}], 'request_id': '9c968602cb3e5ac4a31900150cffc25b'}</t>
+  </si>
+  <si>
+    <t>0.308</t>
   </si>
   <si>
     <t>获取用户人群</t>
@@ -828,10 +865,10 @@
     <t>{"customer_group_type":1,"display_rules":"fixed_list,growth_list,user_group,user_tag","merchant_data":[{"merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001,"area_type":3,"key":"10002","_key":0,"title":"零管-南山第二加油站"}],"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'title': '固定等级', 'value': 'fixed_list', 'key': '1', 'children': [{'title': '测试', 'value': '186', 'key': '1-186'}, {'title': '初级会员', 'value': '971', 'key': '1-971'}, {'title': '中级会员会员', 'value': '972', 'key': '1-972'}, {'title': '高级会员', 'value': '973', 'key': '1-973'}, {'title': '网约车司机专用', 'value': '1013', 'key': '1-1013'}, {'title': '固定等级1', 'value': '1610', 'key': '1-1610'}, {'title': '固定等级2', 'value': '1611', 'key': '1-1611'}, {'title': '固定等级3', 'value': '1612', 'key': '1-1612'}, {'title': '固定等级4', 'value': '1613', 'key': '1-1613'}, {'title': '固定等级5', 'value': '1614', 'key': '1-1614'}, {'title': '固定等级6', 'value': '1615', 'key': '1-1615'}, {'title': '固定等级7', 'value': '1616', 'key': '1-1616'}, {'title': '固定等级8', 'value': '1617', 'key': '1-1617'}, {'title': '固定等级9', 'value': '1618', 'key': '1-1618'}, {'title': '固定等级10', 'value': '1619', 'key': '1-1619'}, {'title': '固定等级11', 'value': '1620', 'key': '1-1620'}, {'title': '固定等级12', 'value': '1621', 'key': '1-1621'}, {'title': '固定等级13', 'value': '1622', 'key': '1-1622'}, {'title': '固定等级14', 'value': '1623', 'key': '1-1623'}, {'title': '固定等级15', 'value': '1624', 'key': '1-1624'}, {'title': '固定等级16', 'value': '1625', 'key': '1-1625'}, {'title': '固定等级17', 'value': '1626', 'key': '1-1626'}, {'title': '固定等级18', 'value': '1627', 'key': '1-1627'}, {'title': '固定等级19', 'value': '1628', 'key': '1-1628'}, {'title': '固定等级20', 'value': '1629', 'key': '1-1629'}, {'title': '固定等级21', 'value': '1630', 'key': '1-1630'}, {'title': '固定等级22', 'value': '1631', 'key': '1-1631'}, {'title': '固定等级23', 'value': '1632', 'key': '1-1632'}, {'title': '固定等级24', 'value': '1633', 'key': '1-1633'}, {'title': '固定等级25', 'value': '1634', 'key': '1-1634'}, {'title': '固定等级26', 'value': '1635', 'key': '1-1635'}, {'title': '固定等级27', 'value': '1636', 'key': '1-1636'}, {'title': '固定等级28', 'value': '1637', 'key': '1-1637'}, {'title': '固定等级29', 'value': '1638', 'key': '1-1638'}, {'title': '固定等级30', 'value': '1639', 'key': '1-1639'}, {'title': '固定等级31', 'value': '1640', 'key': '1-1640'}, {'title': '固定等级32', 'value': '1641', 'key': '1-1641'}, {'title': '固定等级33', 'value': '1642', 'key': '1-1642'}, {'title': '固定等级34', 'value': '1643', 'key': '1-1643'}, {'title': '固定等级35', 'value': '1644', 'key': '1-1644'}, {'title': '固定等级36', 'value': '1645', 'key': '1-1645'}, {'title': '固定等级37', 'value': '1646', 'key': '1-1646'}, {'title': '固定等级38', 'value': '1647', 'key': '1-1647'}, {'title': '固定等级39', 'value': '1648', 'key': '1-1648'}, {'title': '固定等级40', 'value': '1649', 'key': '1-1649'}, {'title': '固定等级41', 'value': '1650', 'key': '1-1650'}, {'title': '固定等级42', 'value': '1651', 'key': '1-1651'}, {'title': '固定等级43', 'value': '1652', 'key': '1-1652'}, {'title': '固定等级44', 'value': '1653', 'key': '1-1653'}, {'title': '固定等级45', 'value': '1654', 'key': '1-1654'}, {'title': '固定等级46', 'value': '1655', 'key': '1-1655'}, {'title': '固定等级47', 'value': '1656', 'key': '1-1656'}, {'title': '固定等级48', 'value': '1657', 'key': '1-1657'}, {'title': '固定等级49', 'value': '1658', 'key': '1-1658'}, {'title': '固定等级50', 'value': '1659', 'key': '1-1659'}, {'title': '固定等级51', 'value': '1660', 'key': '1-1660'}, {'title': '固定等级52', 'value': '1661', 'key': '1-1661'}, {'title': '固定等级53', 'value': '1662', 'key': '1-1662'}, {'title': '固定等级54', 'value': '1663', 'key': '1-1663'}, {'title': '固定等级55', 'value': '1664', 'key': '1-1664'}, {'title': '固定等级56', 'value': '1665', 'key': '1-1665'}, {'title': '固定等级57', 'value': '1666', 'key': '1-1666'}, {'title': '固定等级58', 'value': '1667', 'key': '1-1667'}, {'title': '固定等级59', 'value': '1668', 'key': '1-1668'}, {'title': '固定等级60', 'value': '1669', 'key': '1-1669'}, {'title': '固定等级61', 'value': '1670', 'key': '1-1670'}, {'title': '固定等级62', 'value': '1671', 'key': '1-1671'}, {'title': '固定等级63', 'value': '1672', 'key': '1-1672'}, {'title': '固定等级64', 'value': '1673', 'key': '1-1673'}, {'title': '固定等级65', 'value': '1674', 'key': '1-1674'}, {'title': '固定等级66', 'value': '1675', 'key': '1-1675'}, {'title': '固定等级67', 'value': '1676', 'key': '1-1676'}, {'title': '固定等级68', 'value': '1677', 'key': '1-1677'}, {'title': '固定等级69', 'value': '1678', 'key': '1-1678'}, {'title': '固定等级70', 'value': '1679', 'key': '1-1679'}, {'title': '固定等级71', 'value': '1680', 'key': '1-1680'}, {'title': '固定等级72', 'value': '1681', 'key': '1-1681'}, {'title': '固定等级73', 'value': '1682', 'key': '1-1682'}, {'title': '固定等级74', 'value': '1683', 'key': '1-1683'}, {'title': '固定等级75', 'value': '1684', 'key': '1-1684'}, {'title': '固定等级76', 'value': '1685', 'key': '1-1685'}, {'title': '固定等级77', 'value': '1686', 'key': '1-1686'}, {'title': '固定等级78', 'value': '1687', 'key': '1-1687'}, {'title': '固定等级79', 'value': '1688', 'key': '1-1688'}, {'title': '固定等级80', 'value': '1689', 'key': '1-1689'}, {'title': '固定等级81', 'value': '1690', 'key': '1-1690'}, {'title': '固定等级82', 'value': '1691', 'key': '1-1691'}, {'title': '固定等级83', 'value': '1692', 'key': '1-1692'}, {'title': '固定等级84', 'value': '1693', 'key': '1-1693'}, {'title': '固定等级85', 'value': '1694', 'key': '1-1694'}, {'title': '固定等级86', 'value': '1695', 'key': '1-1695'}, {'title': '固定等级87', 'value': '1696', 'key': '1-1696'}, {'title': '固定等级88', 'value': '1697', 'key': '1-1697'}, {'title': '固定等级89', 'value': '1698', 'key': '1-1698'}, {'title': '固定等级90', 'value': '1699', 'key': '1-1699'}, {'title': '固定等级91', 'value': '1700', 'key': '1-1700'}, {'title': '固定等级92', 'value': '1701', 'key': '1-1701'}, {'title': '固定等级93', 'value': '1702', 'key': '1-1702'}, {'title': '固定等级94', 'value': '1703', 'key': '1-1703'}, {'title': '固定等级95', 'value': '1704', 'key': '1-1704'}, {'title': '固定等级96', 'value': '1705', 'key': '1-1705'}, {'title': '固定等级97', 'value': '1706', 'key': '1-1706'}, {'title': '测试33', 'value': '1717', 'key': '1-1717'}, {'title': '等级010', 'value': '1718', 'key': '1-1718'}, {'title': '等级0101', 'value': '1719', 'key': '1-1719'}, {'title': '瓦尔 vs 小', 'value': '1816', 'key': '1-1816'}]}, {'title': '动态等级', 'value': 'growth_list', 'key': '2', 'children': [{'title': '铜卡会员', 'value': '1', 'key': '2-1'}, {'title': '银卡会员', 'value': '2', 'key': '2-2'}, {'title': '金卡会员', 'value': '3', 'key': '2-3'}, {'title': '白金会员', 'value': '4', 'key': '2-4'}, {'title': '钻石会员', 'value': '5', 'key': '2-5'}]}, {'title': '客户分群', 'value': 'user_group', 'key': '3', 'children': [{'title': '加油卡维度', 'value': '767', 'key': '3-767'}, {'title': '消费油品类型', 'value': '781', 'key': '3-781'}, {'title': '固定人数', 'value': '780', 'key': '3-780'}, {'title': '动态铜卡会员', 'value': '281', 'key': '3-281'}, {'title': '条件手机号为无', 'value': '705', 'key': '3-705'}, {'title': '客群创建发券', 'value': '74', 'key': '3-74'}, {'title': '剩余金额条件', 'value': '802', 'key': '3-802'}, {'title': '南山', 'value': '784', 'key': '3-784'}, {'title': '加油卡维度01', 'value': '783', 'key': '3-783'}, {'title': '01', 'value': '649', 'key': '3-649'}]}, {'title': '客户标签', 'value': 'user_tag', 'key': '4', 'children': [{'title': '黑名单', 'value': 1, 'key': '4-1'}, {'title': '白皮书', 'value': 658, 'key': '4-658'}, {'title': '土豪', 'value': 991, 'key': '4-991'}, {'title': '白衣天使', 'value': 994, 'key': '4-994'}, {'title': '测试通知包', 'value': 1266, 'key': '4-1266'}, {'title': '测试', 'value': 1267, 'key': '4-1267'}, {'title': '34444', 'value': 1268, 'key': '4-1268'}, {'title': '44444', 'value': 1269, 'key': '4-1269'}, {'title': '3333', 'value': 1270, 'key': '4-1270'}]}], 'request_id': '0201e6d1c105df5a560bf85d393f784c'}</t>
-  </si>
-  <si>
-    <t>0.216</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'title': '固定等级', 'value': 'fixed_list', 'key': '1', 'children': [{'title': '测试1', 'value': '306', 'key': '1-306'}, {'title': '兼容性测试等级', 'value': '643', 'key': '1-643'}, {'title': '预发布免审核金额2222', 'value': '799', 'key': '1-799'}, {'title': '固定等级1', 'value': '805', 'key': '1-805'}, {'title': '固定等级2', 'value': '806', 'key': '1-806'}, {'title': '固定等级3', 'value': '807', 'key': '1-807'}, {'title': '固定等级4', 'value': '808', 'key': '1-808'}, {'title': '固定等级5', 'value': '809', 'key': '1-809'}, {'title': '固定等级6', 'value': '810', 'key': '1-810'}, {'title': '固定等级7', 'value': '811', 'key': '1-811'}, {'title': '固定等级8', 'value': '812', 'key': '1-812'}, {'title': '固定等级9', 'value': '813', 'key': '1-813'}, {'title': '固定等级10', 'value': '814', 'key': '1-814'}, {'title': '固定等级11', 'value': '815', 'key': '1-815'}, {'title': '固定等级12', 'value': '816', 'key': '1-816'}, {'title': '固定等级13', 'value': '817', 'key': '1-817'}, {'title': '固定等级14', 'value': '818', 'key': '1-818'}, {'title': '固定等级15', 'value': '819', 'key': '1-819'}, {'title': '固定等级16', 'value': '820', 'key': '1-820'}, {'title': '固定等级17', 'value': '821', 'key': '1-821'}, {'title': '固定等级18', 'value': '822', 'key': '1-822'}, {'title': '固定等级19', 'value': '823', 'key': '1-823'}, {'title': '固定等级20', 'value': '824', 'key': '1-824'}, {'title': '固定等级21', 'value': '825', 'key': '1-825'}, {'title': '固定等级22', 'value': '826', 'key': '1-826'}, {'title': '固定等级23', 'value': '827', 'key': '1-827'}, {'title': '固定等级24', 'value': '828', 'key': '1-828'}, {'title': '固定等级25', 'value': '829', 'key': '1-829'}, {'title': '固定等级26', 'value': '830', 'key': '1-830'}, {'title': '固定等级27', 'value': '831', 'key': '1-831'}, {'title': '固定等级28', 'value': '832', 'key': '1-832'}, {'title': '固定等级29', 'value': '833', 'key': '1-833'}, {'title': '固定等级30', 'value': '834', 'key': '1-834'}, {'title': '固定等级31', 'value': '835', 'key': '1-835'}, {'title': '固定等级32', 'value': '836', 'key': '1-836'}, {'title': '固定等级33', 'value': '837', 'key': '1-837'}, {'title': '固定等级34', 'value': '838', 'key': '1-838'}, {'title': '固定等级35', 'value': '839', 'key': '1-839'}, {'title': '固定等级36', 'value': '840', 'key': '1-840'}, {'title': '固定等级37', 'value': '841', 'key': '1-841'}, {'title': '固定等级38', 'value': '842', 'key': '1-842'}, {'title': '固定等级39', 'value': '843', 'key': '1-843'}, {'title': '固定等级40', 'value': '844', 'key': '1-844'}, {'title': '固定等级41', 'value': '845', 'key': '1-845'}, {'title': '固定等级42', 'value': '846', 'key': '1-846'}, {'title': '固定等级43', 'value': '847', 'key': '1-847'}, {'title': '固定等级44', 'value': '848', 'key': '1-848'}, {'title': '固定等级45', 'value': '849', 'key': '1-849'}, {'title': '固定等级46', 'value': '850', 'key': '1-850'}, {'title': '固定等级47', 'value': '851', 'key': '1-851'}, {'title': '固定等级48', 'value': '852', 'key': '1-852'}, {'title': '固定等级49', 'value': '853', 'key': '1-853'}, {'title': '固定等级50', 'value': '854', 'key': '1-854'}, {'title': '固定等级51', 'value': '855', 'key': '1-855'}, {'title': '固定等级52', 'value': '856', 'key': '1-856'}, {'title': '固定等级53', 'value': '857', 'key': '1-857'}, {'title': '固定等级54', 'value': '858', 'key': '1-858'}, {'title': '固定等级55', 'value': '859', 'key': '1-859'}, {'title': '固定等级56', 'value': '860', 'key': '1-860'}, {'title': '固定等级57', 'value': '861', 'key': '1-861'}, {'title': '固定等级58', 'value': '862', 'key': '1-862'}, {'title': '固定等级59', 'value': '863', 'key': '1-863'}, {'title': '固定等级60', 'value': '864', 'key': '1-864'}, {'title': '固定等级61', 'value': '865', 'key': '1-865'}, {'title': '固定等级62', 'value': '866', 'key': '1-866'}, {'title': '固定等级63', 'value': '867', 'key': '1-867'}, {'title': '固定等级64', 'value': '868', 'key': '1-868'}, {'title': '固定等级65', 'value': '869', 'key': '1-869'}, {'title': '固定等级66', 'value': '870', 'key': '1-870'}, {'title': '固定等级67', 'value': '871', 'key': '1-871'}, {'title': '固定等级68', 'value': '872', 'key': '1-872'}, {'title': '固定等级69', 'value': '873', 'key': '1-873'}, {'title': '固定等级70', 'value': '874', 'key': '1-874'}, {'title': '固定等级71', 'value': '875', 'key': '1-875'}, {'title': '固定等级72', 'value': '876', 'key': '1-876'}, {'title': '固定等级73', 'value': '877', 'key': '1-877'}, {'title': '固定等级74', 'value': '878', 'key': '1-878'}, {'title': '固定等级75', 'value': '879', 'key': '1-879'}, {'title': '固定等级76', 'value': '880', 'key': '1-880'}, {'title': '固定等级77', 'value': '881', 'key': '1-881'}, {'title': '固定等级78', 'value': '882', 'key': '1-882'}, {'title': '固定等级79', 'value': '883', 'key': '1-883'}, {'title': '固定等级80', 'value': '884', 'key': '1-884'}, {'title': '固定等级81', 'value': '885', 'key': '1-885'}, {'title': '固定等级82', 'value': '886', 'key': '1-886'}, {'title': '固定等级83', 'value': '887', 'key': '1-887'}, {'title': '固定等级84', 'value': '888', 'key': '1-888'}, {'title': '固定等级85', 'value': '889', 'key': '1-889'}, {'title': '固定等级86', 'value': '890', 'key': '1-890'}, {'title': '固定等级87', 'value': '891', 'key': '1-891'}, {'title': '固定等级88', 'value': '892', 'key': '1-892'}, {'title': '固定等级89', 'value': '893', 'key': '1-893'}, {'title': '固定等级90', 'value': '894', 'key': '1-894'}, {'title': '固定等级91', 'value': '895', 'key': '1-895'}, {'title': '固定等级92', 'value': '896', 'key': '1-896'}, {'title': '固定等级93', 'value': '897', 'key': '1-897'}, {'title': '等级98', 'value': '898', 'key': '1-898'}, {'title': '等级99', 'value': '899', 'key': '1-899'}, {'title': '等级100', 'value': '900', 'key': '1-900'}]}, {'title': '动态等级', 'value': 'growth_list', 'key': '2', 'children': [{'title': '铜卡会员', 'value': '1', 'key': '2-1'}, {'title': '银卡会员', 'value': '2', 'key': '2-2'}, {'title': '金卡会员', 'value': '3', 'key': '2-3'}, {'title': '白金会员', 'value': '4', 'key': '2-4'}, {'title': '钻石会员', 'value': '5', 'key': '2-5'}]}, {'title': '客户分群', 'value': 'user_group', 'key': '3', 'children': [{'title': '剩余金额条件', 'value': '802', 'key': '3-802'}, {'title': '南山', 'value': '784', 'key': '3-784'}, {'title': '加油卡维度01', 'value': '783', 'key': '3-783'}, {'title': '固定人数', 'value': '780', 'key': '3-780'}, {'title': '条件手机号为无', 'value': '705', 'key': '3-705'}, {'title': '客群创建发券', 'value': '74', 'key': '3-74'}, {'title': '加油卡维度', 'value': '767', 'key': '3-767'}, {'title': '01', 'value': '649', 'key': '3-649'}, {'title': '动态铜卡会员', 'value': '281', 'key': '3-281'}, {'title': '消费油品类型', 'value': '781', 'key': '3-781'}]}, {'title': '客户标签', 'value': 'user_tag', 'key': '4', 'children': [{'title': '测试111', 'value': 3, 'key': '4-3'}]}], 'request_id': 'f575f806713179f616c6630968e0b3b1'}</t>
+  </si>
+  <si>
+    <t>0.474</t>
   </si>
   <si>
     <t>营销活动</t>
@@ -849,10 +886,10 @@
     <t>默认</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '21722', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 48221, 'identify_rule_id': 0, 'region_rule_id': 48222, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\uff08\\u96f6\\u7ba1\\u4e13\\u7528\\uff09\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1607310350, 'update_time': 1607310350, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1607310368, 'end_time': 1607310530, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': 'd3a251b4353a28eab041315e74b45fe2'}</t>
-  </si>
-  <si>
-    <t>0.422</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '10424', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 196, 'identify_rule_id': 0, 'region_rule_id': 197, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\nLNG\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\uff08\\u96f6\\u7ba1\\u4e13\\u7528\\uff09\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1607426365, 'update_time': 1607426365, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1607426383, 'end_time': 1607426545, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': '6faee48d01c90cc84515f36e95be292a'}</t>
+  </si>
+  <si>
+    <t>0.521</t>
   </si>
   <si>
     <t>激活优惠券</t>
@@ -864,10 +901,7 @@
     <t>{"coupon_id":"2506","merchant_type":"1001","merchant_id":"10001","token":"46c32cf591caf138619fbbb77f72ae8002f82ca1"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': True, 'request_id': '59723f2ed0ee5bafcd8d0d7a1e82189f'}</t>
-  </si>
-  <si>
-    <t>0.266</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': True, 'request_id': '2610b86d9d5ad4df9979598c4b75018a'}</t>
   </si>
   <si>
     <t>创建满额送活动</t>
@@ -879,16 +913,10 @@
     <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
   </si>
   <si>
-    <t>{'status': 10005, 'info': '南山第二加油站（零管专用）在该时间段内已有活动，请勿重复创建', 'reason': '', 'data': [], 'request_id': 'aa3e448c012146d61cc3a29f1d3e3590'}</t>
-  </si>
-  <si>
-    <t>0.257</t>
-  </si>
-  <si>
-    <t>{"status":10005,"info":"\u5357\u5c71\u7b2c\u4e8c\u52a0\u6cb9\u7ad9\uff08\u96f6\u7ba1\u4e13\u7528\uff09\u5728\u8be5\u65f6\u95f4\u6bb5\u5185\u5df2\u6709\u6d3b\u52a8\uff0c\u8bf7\u52ff\u91cd\u590d\u521b\u5efa","reason":"","data":[],"request_id":"aa3e448c012146d61cc3a29f1d3e3590"}</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '2429'}, 'request_id': '6045c1b0c4e004d30b9ec97fbcffabef'}</t>
+  </si>
+  <si>
+    <t>0.356</t>
   </si>
   <si>
     <t>创建价立减活动</t>
@@ -900,10 +928,10 @@
     <t>{"activity_name":"日常回归-价立减","arr_merchant_ids":["10001"],"start_time":"2020-12-02 00:00:00","end_time":"2021-01-02 23:59:59","activity_people":"1","user_group_rule":[],"reduce_way":"1","user_limit":"1","limit_day":0,"limit_number":0,"repeat_way":1,"activity_rule":[{"arr_time_rule":{"arr_repeat_time":[],"arr_repeat_day":[0]},"arr_oil_ids":[0],"cost_origin_price":100,"discount_per_litre":30}],"is_oil_card_pay":"0","token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '14047'}, 'request_id': '38385e592a17d019e2b2eb1fa9f947ee'}</t>
-  </si>
-  <si>
-    <t>0.232</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '6050'}, 'request_id': 'ac52542e4435d9fd29f99359e446af4a'}</t>
+  </si>
+  <si>
+    <t>0.417</t>
   </si>
   <si>
     <t>创建满额减活动</t>
@@ -915,13 +943,10 @@
     <t>{"activity_name":"日常回归-满额减","arr_merchant_ids":["10002"],"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 10:25:59","activity_people":"1","full_reduction_type":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"rules":[{"man_award":10,"step_award":1,"cost_type":1}]}],"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 10005, 'info': '南山第二加油站（零管专用）在该时间段内已有活动，请勿重复创建', 'reason': '', 'data': [], 'request_id': 'c770eac5deacc051e4fe01b1c77363a2'}</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>{"status":10005,"info":"\u5357\u5c71\u7b2c\u4e8c\u52a0\u6cb9\u7ad9\uff08\u96f6\u7ba1\u4e13\u7528\uff09\u5728\u8be5\u65f6\u95f4\u6bb5\u5185\u5df2\u6709\u6d3b\u52a8\uff0c\u8bf7\u52ff\u91cd\u590d\u521b\u5efa","reason":"","data":[],"request_id":"c770eac5deacc051e4fe01b1c77363a2"}</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1413'}, 'request_id': '6fa5d4c35990cd2146602b77e8fff5a3'}</t>
+  </si>
+  <si>
+    <t>0.302</t>
   </si>
   <si>
     <t>创建红包活动</t>
@@ -933,10 +958,10 @@
     <t>{"name":"日常回归-红包","mode_url":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default.png","main_color":"#FED0B0","font_color":"#333","theme_config":{"pageBg":"#F6F7FB","panelHeaderBg":"#D6D6D6","panelBodyBg":"#FFFFFF","panelFt":"#333333","btnBg":"#1E3CFA","btnFt":"#FFFFFF","noDataBtnBg":"#1E3CFA","noDataBtnFt":"#FFFFFF","tipFontColor":"#333333"},"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 11:00:00","num":1,"station_range":"10002","limit":{"getLimit":{"days":1,"times":1,"lastUse":"0"},"userLimit":{"type":"1"},"authLimit":{"type":1},"shareLimit":{"type":"1","title":"免费的优惠券，赶紧抢","pic":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default_share.png"}},"limit_content":"1.有效期：2020-12-02 00:00:00至2020-12-02 11:00:00\n2.红包内容：日常回归-优惠券1x1\n每个红包送10积分\n每个红包送10成长值\n3.可领取用户：所有用户\n4.分享限制：支持分享\n5.领取限制：每个用户1天可领取1次","award":[{"type":1,"value":[{"id":"10347","num":1}]},{"type":2,"value":10},{"type":3,"value":10}],"logo_url":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png","token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'appid': 'wx73a8de5287159207', 'stationName': '南山第二加油站（零管专用）', 'pathInfo': {'qr_url': 'https://api.shylwlkj.com/q/?r=1&amp;a=game&amp;c=5fcd9c119c5a2', 'path': '/activityPackage/redpacketActivity/redpacket/redpacket?q=c%3D5fcd9c119c5a2'}}], 'request_id': 'cbcf24af6906f98dc6d5163d7ab9d08e'}</t>
-  </si>
-  <si>
-    <t>0.353</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'appid': 'wx73a8de5287159207', 'stationName': '南山第二加油站（零管专用）', 'pathInfo': {'qr_url': 'https://api.shylwlkj.com/q/?r=1&amp;a=game&amp;c=5fcf61411ba53', 'path': '/activityPackage/redpacketActivity/redpacket/redpacket?q=c%3D5fcf61411ba53'}}], 'request_id': '9be17721322fc0e44e03d096a4a6542d'}</t>
+  </si>
+  <si>
+    <t>0.671</t>
   </si>
   <si>
     <t>创建充值送券活动</t>
@@ -948,10 +973,10 @@
     <t>{"activity_name":"日常回归-充值送券","user_limit":1,"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 12:30:59","activity_rule":[{"arr_oil_card_ids":[0],"recharge_award":[{"recharge_money":1,"arr_coupon_id_amount":{"10347":1}}]}],"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '404'}, 'request_id': 'c1b3461ae41e6f2f87ae7cecbab5c7fa'}</t>
-  </si>
-  <si>
-    <t>0.263</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '256'}, 'request_id': '52533f75424677e30613e6d6319f92f2'}</t>
+  </si>
+  <si>
+    <t>0.379</t>
   </si>
   <si>
     <t>创建手动发券活动</t>
@@ -963,10 +988,10 @@
     <t>{"activity_name":"日常回归-手动发券","send_time":"2020-12-02 16:37:19","activity_people":2,"user_group_rule":["2-1"],"coupon_json":[{"coupon_id":"10347","send_num":1}],"notice_type":0,"merchant_type":1001,"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'id': '1326'}, 'request_id': '2be418cb04fdbf75e775361363edf452'}</t>
-  </si>
-  <si>
-    <t>0.259</t>
+    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'id': '535'}, 'request_id': 'dcdf0c367be0dc61f13c3ad295b581e6'}</t>
+  </si>
+  <si>
+    <t>0.531</t>
   </si>
   <si>
     <t>创建幸运抽奖活动</t>
@@ -978,10 +1003,10 @@
     <t>{"activity_name":"日常回归-幸运抽奖","start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","station_range":[{"appid":"wx73a8de5287159207","merchant_ids":["10002"]}],"activity_type":2,"activity_people":1,"user_group_rule":[],"template_id":"1","activity_title":"幸运抽奖抽抽抽~","activity_desc":"日常回归点-幸运抽奖","default_draw_count":1,"activity_rule":[{"type":1,"detail":[{"oil_ids":[-1],"price_type":1,"money":10}]}],"prize_data":[{"prize_type":1,"prize_name":"一等奖","total_amount":10,"rate":"10","prize_detail":[{"coupon_id":"10347","coupon_name":"创建优惠券-测试1","coupon_price":[10],"num":1,"prize_img":"https://uat-authentication-1258898587.cos.ap-beijing.myqcloud.com/public/2020/12/02/17/a98c69a5d14432b7ae18bb9fe9a2.png"}]},{"prize_type":2,"prize_name":"二等奖","total_amount":100,"rate":"20","prize_detail":{"credit_cnt":1000}},{"prize_type":2,"prize_name":"三等奖","total_amount":200,"rate":"30","prize_detail":{"credit_cnt":500}},{"prize_type":3,"prize_name":"四等奖","total_amount":500,"rate":"40"}],"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'activity_id': '1163', 'activity_name': '日常回归-幸运抽奖', 'start_time': '2020-12-07 11:06:13', 'end_time': '2020-12-07 11:08:55', 'merchant_data': {'wx73a8de5287159207': {'app_id': 'wx73a8de5287159207', 'app_type': 2, 'appid_name': None, 'activity_code': 'a7ab0cc313640672bc894cd5f2820c86', 'qr_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;p=game&amp;a=dzp&amp;id=1163', 'path': '/activityPackage/turntableActivity/index/index?id=1163', 'merchant_list': [{'merchant_type': 1001, 'merchant_id': 10002, 'merchant_name': '--'}]}}}, 'request_id': 'ab1ede2c9457b6d952809d7d57c4e3ef'}</t>
-  </si>
-  <si>
-    <t>0.249</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'activity_id': '606', 'activity_name': '日常回归-幸运抽奖', 'start_time': '2020-12-08 19:19:49', 'end_time': '2020-12-08 19:22:31', 'merchant_data': {'wx73a8de5287159207': {'app_id': 'wx73a8de5287159207', 'app_type': 2, 'appid_name': None, 'activity_code': '8a627d9680de6d9712f29f8e0951c73f', 'qr_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;p=game&amp;a=dzp&amp;id=606', 'path': '/activityPackage/turntableActivity/index/index?id=606', 'merchant_list': [{'merchant_type': 1001, 'merchant_id': 10002, 'merchant_name': '--'}]}}}, 'request_id': '1f44c632a859360652c49dcb5bbc3cb1'}</t>
+  </si>
+  <si>
+    <t>0.339</t>
   </si>
   <si>
     <t>创建好友邀请活动</t>
@@ -993,10 +1018,10 @@
     <t>{"activity":{"activity_name":"日常回归-好友邀请","template_ids":0,"page_style":{"homePage":{"headerImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/14/a3e81f14cfa8893cd46ee280c3c2.png","invitationImgList":{"inviteFriends":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/45639060966ff759e9e394e39ae7.png","faceInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/943b48bdd54e7bcb47f626f5789b.png","postersInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/0e196fdd10b1251b5b7eac59a200.png","postersBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/03/16/6836e862788acb42b67414f737b3.png"},"awardRanking":{"firstImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/b05a5c05d0d984f88ef20fae1bdb.png","secondImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/191c6363f9ac6c3972cfa5d82c28.png","thirdImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/ab5dc2d794029f74244cd2752686.png","defaultUserImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/02/16/76e411d0ab0791739669d470938e.png"}},"myRewardPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2019/12/12/11/6ca03a134e884e84e86e1427bb20.png"},"activityRulesPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/20/7a3f11f089d4ae09235d99928261.png"},"beInvitedPageBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191127/14/2ceccbf61842af679219859cb06d.png","beInvitedCouponsImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/27/15/399d3477946fb1bc53c5a09f3d57.png","icon":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/878aee8e814d3c213224e0e1bf80.png","fontColor":{"activityRulesColor":"#2600AA","shufflingAndReward":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"contentAndTitle":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"homePageBtnColor":"#733145","otherBtn":{"mainColor":"#2600AA","auxiliaryColor":"rgba(38, 0, 170, 0.6)"},"postersColor":"rgba(51, 51, 51, 1)","auxiliaryBtnColor":"#F0D701"},"btnBg":{"mainBg":"#F0D701","auxiliaryBg":"rgba(240, 215, 1, 0.5)"},"pageBg":{"invitationPageBg":"rgba(16, 1, 61, 1)","beInvitedpageBg":"rgba(16, 1, 61, 1)","rewardListBg":"rgba(16, 1, 61, 1)"},"panelBg":{"mainBg":"rgba(69, 44, 159, 1)","auxiliaryBg":"rgba(56, 33, 138, 1)","gradientBg":"linear-gradient(180deg, rgba(38, 0, 170, 1) 50%, rgba(38, 0, 170, 0) 100%)","otherGradientBg":"linear-gradient(90deg, rgba(104, 63, 199, 1)  50%, rgba(69, 44, 159, 1) 100%)"},"share_img":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/21/15/609ecebd9616fb1d032156f0be5c.png","awardRankingUserInfoBg":{"mainBg":"rgba(0,0,0,0.6)","auxiliaryBg":"rgba(0,0,0,0.3)"}},"start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","stations":[{"title":"零管-南山第二加油站","merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001}],"activityRuleType":2,"activity_rule":"日常回归-好友邀请","share_title":"日常回归-好友邀请","authorize_limit":1,"template_content":"1,2,3","arr_merchant_ids":["10002"]},"inviter_setting":{"inviter_qualification":1,"success_invite_condition":1,"user_group_rule":[],"enable_coupon":1,"coupon_ids_and_amount":[{"coupon_id":"10347","coupon_amount":1,"coupon_name":"创建优惠券-测试1"}],"enable_points":0,"enable_vip_grouth":0,"enable_step_reward":1,"step_reward":[{"step":1,"people_success_invited":"1","enable_coupon":0,"enable_points":1,"points":"10","enable_vip_grouth":1,"vip_grouth_val":"10"}]},"invitee_setting":{"invitee_qualification":2,"enable_coupon":0,"enable_points":1,"points":"20","enable_vip_grouth":1,"vip_grouth_val":"20"},"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'activity_url': '/activityPackage/inviteFriends/index/index?activity_id=1430', 'qr_code': 'https://prd-1258898587.cos.ap-beijing.myqcloud.com/public/activity/invite/1430/b647ed1862fac684a08c5e59a39e.png', 'appid': 'wx73a8de5287159207', 'merchant_names': '南山第二加油站（零管专用）'}], 'request_id': '3a67ebd6690d8bcfa438f222cb97d281'}</t>
-  </si>
-  <si>
-    <t>0.806</t>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'activity_url': '/activityPackage/inviteFriends/index/index?activity_id=1059', 'qr_code': 'https://uat-authentication-1258898587.cos.ap-beijing.myqcloud.com/public/activity/invite/1059/22519d13d94b70239d62c3c90247.png', 'appid': 'wx73a8de5287159207', 'merchant_names': '南山第二加油站（零管专用）'}], 'request_id': '123458b4470125e58f9f2e38519ccdce'}</t>
+  </si>
+  <si>
+    <t>1.169</t>
   </si>
   <si>
     <t>/api/user/Login/logout</t>
@@ -1005,25 +1030,17 @@
     <t>{"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': '退出成功!', 'reason': '', 'data': [], 'request_id': '887f92ca6dfe2ffb10a2f14e04c64cd8'}</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 5494}, 'request_id': '92938c71c202110fc9882084f55a98be'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'status': 200, 'info': 'Success', 'data': {'order_id': 5493}, 'request_id': 'ee68dd3ef90ce7f90d22b3c71b2339b9'}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{'status': 200, 'info': '退出成功!', 'reason': '', 'data': [], 'request_id': 'e0edf7a843abf7296780cd9849de7076'}</t>
+  </si>
+  <si>
+    <t>0.091</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1170,24 +1187,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2B9E54"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF4588"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1288,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1441,25 +1440,13 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1790,8 +1777,8 @@
   </sheetPr>
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J22" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="N4" zoomScale="333" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1813,19 +1800,19 @@
     <col min="16" max="16" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="8" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="8" customWidth="1"/>
-    <col min="19" max="84" width="10.83203125" style="8" customWidth="1"/>
-    <col min="85" max="16384" width="10.83203125" style="8"/>
+    <col min="19" max="85" width="10.83203125" style="8" customWidth="1"/>
+    <col min="86" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="16"/>
@@ -1847,9 +1834,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="16"/>
@@ -1954,17 +1941,17 @@
       <c r="M4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53" t="s">
+      <c r="P4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2000,17 +1987,17 @@
       <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53" t="s">
+      <c r="P5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2045,17 +2032,17 @@
       <c r="M6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53" t="s">
+      <c r="P6" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2096,20 +2083,22 @@
       <c r="N7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="51" t="s">
         <v>57</v>
       </c>
       <c r="P7" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q7" s="53" t="s">
+        <v>59</v>
+      </c>
       <c r="R7" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="36" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -2118,7 +2107,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>53</v>
@@ -2130,7 +2119,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2142,22 +2131,24 @@
         <v>31</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="P8" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>66</v>
+      </c>
       <c r="R8" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -2166,7 +2157,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>53</v>
@@ -2178,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2190,22 +2181,24 @@
         <v>31</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="55" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q9" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="R9" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -2214,7 +2207,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>53</v>
@@ -2226,7 +2219,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2238,22 +2231,24 @@
         <v>31</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="O10" s="51" t="s">
+        <v>77</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="R10" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="36" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -2262,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>53</v>
@@ -2274,7 +2269,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2286,22 +2281,24 @@
         <v>31</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="55" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>83</v>
       </c>
       <c r="P11" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="R11" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="36" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2310,7 +2307,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>53</v>
@@ -2322,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2334,22 +2331,24 @@
         <v>31</v>
       </c>
       <c r="N12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="O12" s="51" t="s">
+        <v>89</v>
       </c>
       <c r="P12" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>90</v>
+      </c>
       <c r="R12" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="36" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -2358,7 +2357,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>38</v>
@@ -2370,7 +2369,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -2379,23 +2378,23 @@
       <c r="M13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53" t="s">
+      <c r="N13" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -2404,10 +2403,10 @@
         <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -2416,7 +2415,7 @@
         <v>29</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2427,23 +2426,23 @@
       <c r="M14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53" t="s">
+      <c r="N14" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="36" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -2452,10 +2451,10 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>28</v>
@@ -2464,7 +2463,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2475,23 +2474,23 @@
       <c r="M15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53" t="s">
+      <c r="N15" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="36" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -2500,10 +2499,10 @@
         <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -2512,7 +2511,7 @@
         <v>29</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2523,23 +2522,23 @@
       <c r="M16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53" t="s">
+      <c r="N16" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="36" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -2548,10 +2547,10 @@
         <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>28</v>
@@ -2560,7 +2559,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2571,23 +2570,23 @@
       <c r="M17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53" t="s">
+      <c r="N17" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="36" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -2596,10 +2595,10 @@
         <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -2608,7 +2607,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2619,23 +2618,23 @@
       <c r="M18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53" t="s">
+      <c r="N18" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="36" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -2644,10 +2643,10 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>28</v>
@@ -2656,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2667,35 +2666,35 @@
       <c r="M19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="O19" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53" t="s">
+      <c r="N19" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="36" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>46</v>
@@ -2706,42 +2705,42 @@
       <c r="H20" s="19"/>
       <c r="I20" s="9"/>
       <c r="J20" s="14" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53" t="s">
+      <c r="N20" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="36" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>28</v>
@@ -2750,46 +2749,46 @@
         <v>29</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="14"/>
       <c r="K21" s="9"/>
       <c r="L21" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="O21" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53" t="s">
+      <c r="N21" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="36" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>46</v>
@@ -2799,42 +2798,42 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="14" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53" t="s">
+      <c r="N22" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="36" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>46</v>
@@ -2845,42 +2844,42 @@
       <c r="H23" s="14"/>
       <c r="I23" s="9"/>
       <c r="J23" s="14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="O23" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="P23" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53" t="s">
+      <c r="N23" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="P23" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="36" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>28</v>
@@ -2889,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I24" s="24"/>
       <c r="J24" s="9"/>
@@ -2898,35 +2897,35 @@
       <c r="M24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="O24" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="P24" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53" t="s">
+      <c r="N24" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="36" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>28</v>
@@ -2935,7 +2934,7 @@
         <v>29</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="14"/>
@@ -2944,32 +2943,32 @@
       <c r="M25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="O25" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="P25" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53" t="s">
+      <c r="N25" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="36" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>53</v>
@@ -2981,7 +2980,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="14"/>
@@ -2993,34 +2992,36 @@
         <v>31</v>
       </c>
       <c r="N26" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="O26" s="55" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="O26" s="51" t="s">
+        <v>170</v>
       </c>
       <c r="P26" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q26" s="53" t="s">
+        <v>171</v>
+      </c>
       <c r="R26" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="36" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>46</v>
@@ -3031,42 +3032,42 @@
       <c r="H27" s="14"/>
       <c r="I27" s="9"/>
       <c r="J27" s="14" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="O27" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="P27" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53" t="s">
+      <c r="N27" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="P27" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="36" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>28</v>
@@ -3075,34 +3076,34 @@
         <v>29</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="14"/>
       <c r="K28" s="9"/>
       <c r="L28" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="O28" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="P28" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53" t="s">
+      <c r="N28" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="36" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>24</v>
@@ -3111,10 +3112,10 @@
         <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>28</v>
@@ -3123,7 +3124,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="14"/>
@@ -3134,23 +3135,25 @@
       <c r="M29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="O29" s="55" t="s">
-        <v>177</v>
+      <c r="N29" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" s="51" t="s">
+        <v>187</v>
       </c>
       <c r="P29" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>188</v>
+      </c>
       <c r="R29" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="36" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>24</v>
@@ -3159,10 +3162,10 @@
         <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>28</v>
@@ -3171,7 +3174,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="14"/>
@@ -3182,23 +3185,25 @@
       <c r="M30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="O30" s="55" t="s">
-        <v>181</v>
+      <c r="N30" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>193</v>
       </c>
       <c r="P30" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>194</v>
+      </c>
       <c r="R30" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="36" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>24</v>
@@ -3207,10 +3212,10 @@
         <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>46</v>
@@ -3221,7 +3226,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="8"/>
       <c r="J31" s="48" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="3" t="s">
@@ -3231,22 +3236,24 @@
         <v>31</v>
       </c>
       <c r="N31" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="O31" s="55" t="s">
-        <v>187</v>
+        <v>199</v>
+      </c>
+      <c r="O31" s="51" t="s">
+        <v>200</v>
       </c>
       <c r="P31" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="53"/>
+        <v>58</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>201</v>
+      </c>
       <c r="R31" s="53" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="36" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>24</v>
@@ -3255,10 +3262,10 @@
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>46</v>
@@ -3269,30 +3276,30 @@
       <c r="H32" s="14"/>
       <c r="I32" s="9"/>
       <c r="J32" s="48" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N32" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="O32" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="P32" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="O32" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="36" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>
@@ -3301,10 +3308,10 @@
         <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>28</v>
@@ -3313,7 +3320,7 @@
         <v>29</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="14"/>
@@ -3322,17 +3329,17 @@
       <c r="M33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="O33" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="P33" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53" t="s">
+      <c r="N33" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="O33" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3398,19 +3405,19 @@
     <col min="16" max="16" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="8" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="8" customWidth="1"/>
-    <col min="19" max="84" width="10.83203125" style="8" customWidth="1"/>
-    <col min="85" max="16384" width="10.83203125" style="8"/>
+    <col min="19" max="85" width="10.83203125" style="8" customWidth="1"/>
+    <col min="86" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="16"/>
@@ -3430,9 +3437,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="16"/>
@@ -3591,10 +3598,10 @@
         <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>46</v>
@@ -3605,7 +3612,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="9"/>
       <c r="J6" s="48" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -3762,11 +3769,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="16"/>
@@ -3786,15 +3793,15 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="16"/>
       <c r="H2" s="13"/>
       <c r="I2" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="16"/>
@@ -3867,26 +3874,26 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H4" s="26"/>
       <c r="J4" s="14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -3894,10 +3901,10 @@
         <v>31</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>206</v>
+        <v>217</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>218</v>
       </c>
       <c r="P4" s="49" t="s">
         <v>31</v>
@@ -3912,16 +3919,16 @@
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>28</v>
@@ -3930,7 +3937,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="3"/>
@@ -3939,10 +3946,10 @@
         <v>31</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="P5" s="49" t="s">
         <v>31</v>
@@ -3957,16 +3964,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -3975,7 +3982,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -3985,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="O6" s="52" t="s">
+        <v>230</v>
       </c>
       <c r="P6" s="49" t="s">
         <v>31</v>
@@ -4003,27 +4010,27 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -4031,10 +4038,10 @@
         <v>31</v>
       </c>
       <c r="N7" s="50" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="P7" s="49" t="s">
         <v>31</v>
@@ -4046,30 +4053,30 @@
     </row>
     <row r="8" spans="1:18" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4077,10 +4084,10 @@
         <v>31</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="P8" s="49" t="s">
         <v>31</v>
@@ -4092,30 +4099,30 @@
     </row>
     <row r="9" spans="1:18" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -4123,10 +4130,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="P9" s="49" t="s">
         <v>31</v>
@@ -4138,30 +4145,30 @@
     </row>
     <row r="10" spans="1:18" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -4169,10 +4176,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="O10" s="51" t="s">
-        <v>241</v>
+        <v>253</v>
+      </c>
+      <c r="O10" s="52" t="s">
+        <v>254</v>
       </c>
       <c r="P10" s="49" t="s">
         <v>31</v>
@@ -4184,30 +4191,30 @@
     </row>
     <row r="11" spans="1:18" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -4215,10 +4222,10 @@
         <v>31</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="O11" s="51" t="s">
-        <v>244</v>
+        <v>256</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>257</v>
       </c>
       <c r="P11" s="49" t="s">
         <v>31</v>
@@ -4268,19 +4275,19 @@
     <col min="16" max="16" width="15" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="10.83203125" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="8"/>
+    <col min="19" max="25" width="10.83203125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="16"/>
@@ -4300,15 +4307,15 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="16"/>
       <c r="H2" s="13"/>
       <c r="I2" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="16"/>
@@ -4381,27 +4388,27 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="8"/>
       <c r="J4" s="14" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -4419,27 +4426,27 @@
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -4489,19 +4496,19 @@
     <col min="16" max="16" width="15" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="38" width="10.83203125" style="8" customWidth="1"/>
-    <col min="39" max="16384" width="10.83203125" style="8"/>
+    <col min="19" max="39" width="10.83203125" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="16"/>
@@ -4521,15 +4528,15 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="16"/>
       <c r="H2" s="13"/>
       <c r="I2" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="16"/>
@@ -4602,16 +4609,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
@@ -4620,7 +4627,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="14"/>
@@ -4630,10 +4637,10 @@
         <v>31</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>248</v>
+        <v>260</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>261</v>
       </c>
       <c r="P4" s="49" t="s">
         <v>31</v>
@@ -4648,16 +4655,16 @@
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>28</v>
@@ -4666,7 +4673,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -4676,10 +4683,10 @@
         <v>31</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="P5" s="49" t="s">
         <v>31</v>
@@ -4694,16 +4701,16 @@
         <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -4712,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -4722,10 +4729,10 @@
         <v>31</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="P6" s="49" t="s">
         <v>31</v>
@@ -4740,16 +4747,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>28</v>
@@ -4758,7 +4765,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -4768,10 +4775,10 @@
         <v>31</v>
       </c>
       <c r="N7" s="50" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P7" s="49" t="s">
         <v>31</v>
@@ -4783,19 +4790,19 @@
     </row>
     <row r="8" spans="1:18" ht="36" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>28</v>
@@ -4804,7 +4811,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -4814,10 +4821,10 @@
         <v>31</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="P8" s="49" t="s">
         <v>31</v>
@@ -4829,19 +4836,19 @@
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>28</v>
@@ -4850,22 +4857,22 @@
         <v>29</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P9" s="49" t="s">
         <v>31</v>
@@ -4877,19 +4884,19 @@
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>28</v>
@@ -4898,7 +4905,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -4908,10 +4915,10 @@
         <v>31</v>
       </c>
       <c r="N10" s="50" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="P10" s="49" t="s">
         <v>31</v>
@@ -4923,19 +4930,19 @@
     </row>
     <row r="11" spans="1:18" ht="36" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>28</v>
@@ -4944,48 +4951,46 @@
         <v>29</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="P11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="R11" s="52" t="s">
-        <v>287</v>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="36" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>28</v>
@@ -4994,22 +4999,22 @@
         <v>29</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P12" s="49" t="s">
         <v>31</v>
@@ -5021,19 +5026,19 @@
     </row>
     <row r="13" spans="1:18" ht="36" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>28</v>
@@ -5042,48 +5047,46 @@
         <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="R13" s="52" t="s">
-        <v>287</v>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>28</v>
@@ -5092,22 +5095,22 @@
         <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P14" s="49" t="s">
         <v>31</v>
@@ -5119,19 +5122,19 @@
     </row>
     <row r="15" spans="1:18" ht="36" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>28</v>
@@ -5140,22 +5143,22 @@
         <v>29</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P15" s="49" t="s">
         <v>31</v>
@@ -5167,19 +5170,19 @@
     </row>
     <row r="16" spans="1:18" ht="36" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>28</v>
@@ -5188,22 +5191,22 @@
         <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P16" s="49" t="s">
         <v>31</v>
@@ -5215,19 +5218,19 @@
     </row>
     <row r="17" spans="1:18" ht="36" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>28</v>
@@ -5236,22 +5239,22 @@
         <v>29</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P17" s="49" t="s">
         <v>31</v>
@@ -5263,19 +5266,19 @@
     </row>
     <row r="18" spans="1:18" ht="36" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>28</v>
@@ -5284,22 +5287,22 @@
         <v>29</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="O18" s="51" t="s">
-        <v>323</v>
+        <v>330</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>331</v>
       </c>
       <c r="P18" s="49" t="s">
         <v>31</v>
@@ -5311,19 +5314,19 @@
     </row>
     <row r="19" spans="1:18" ht="36" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>28</v>
@@ -5332,7 +5335,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -5342,10 +5345,10 @@
         <v>31</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P19" s="49" t="s">
         <v>31</v>
@@ -5396,19 +5399,19 @@
     <col min="16" max="16" width="15" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="38" width="10.83203125" style="8" customWidth="1"/>
-    <col min="39" max="16384" width="10.83203125" style="8"/>
+    <col min="19" max="39" width="10.83203125" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="16"/>
@@ -5428,15 +5431,15 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="16"/>
       <c r="H2" s="13"/>
       <c r="I2" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="16"/>
@@ -5509,16 +5512,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>28</v>
@@ -5527,7 +5530,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -5674,4 +5677,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E16047-D06C-FE44-A3DF-951ACB0F2CBA}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="288" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="2" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52" style="17" customWidth="1"/>
+    <col min="10" max="10" width="116.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.1640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="150" style="17" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="36" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="36" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="36" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="36" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="36" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="36" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="36" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="P11" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="http://106.52.206.103:30020/api/user/Login/login_admin" xr:uid="{0FD23580-169C-1044-A939-ACFA0A1963F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>